--- a/ComparacionAlgoritmosOrden/Datos/ComparacionAlgoritmos.xlsx
+++ b/ComparacionAlgoritmosOrden/Datos/ComparacionAlgoritmos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GamerHouse\Documents\0_UNISON\Matematicas Discretas\ComparacionAlgoritmoOrden\ComparacionAlgoritmosOrden\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E1D9E-0D49-4065-81DB-A4E61954249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A30EE2-712C-4925-8F4B-F0F224C536D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{871D0286-CB86-4B51-9503-973F74462E19}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tamaño</t>
   </si>
@@ -304,7 +304,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$1:$CW$1</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$1:$CV$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -613,309 +613,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$2:$CW$2</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$2:$CV$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>30.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>58.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>114.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>350</c:v>
+                  <c:v>154.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>450</c:v>
+                  <c:v>277.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>550</c:v>
+                  <c:v>289.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>600</c:v>
+                  <c:v>440.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>850</c:v>
+                  <c:v>682.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1050</c:v>
+                  <c:v>786</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1550</c:v>
+                  <c:v>906.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1650</c:v>
+                  <c:v>1242.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1800</c:v>
+                  <c:v>1433.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1850</c:v>
+                  <c:v>1641.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2350</c:v>
+                  <c:v>1897.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2400</c:v>
+                  <c:v>2465.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3150</c:v>
+                  <c:v>2392.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2850</c:v>
+                  <c:v>2927</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3800</c:v>
+                  <c:v>3154.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3900</c:v>
+                  <c:v>3290.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4300</c:v>
+                  <c:v>4084.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4550</c:v>
+                  <c:v>4338.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4850</c:v>
+                  <c:v>4648.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5000</c:v>
+                  <c:v>5134.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6150</c:v>
+                  <c:v>5567.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6550</c:v>
+                  <c:v>6067</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6700</c:v>
+                  <c:v>6424.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7100</c:v>
+                  <c:v>6549.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7850</c:v>
+                  <c:v>7234.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8450</c:v>
+                  <c:v>7814.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8500</c:v>
+                  <c:v>7979.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9100</c:v>
+                  <c:v>9230.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9350</c:v>
+                  <c:v>9793.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10300</c:v>
+                  <c:v>9775.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10600</c:v>
+                  <c:v>10386.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11100</c:v>
+                  <c:v>10583</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11050</c:v>
+                  <c:v>11570.3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12500</c:v>
+                  <c:v>11691</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12700</c:v>
+                  <c:v>12771.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14150</c:v>
+                  <c:v>13482.7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14750</c:v>
+                  <c:v>13528.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14600</c:v>
+                  <c:v>13625.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15800</c:v>
+                  <c:v>15042.9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17100</c:v>
+                  <c:v>15550.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17600</c:v>
+                  <c:v>16493.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17800</c:v>
+                  <c:v>17216.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17950</c:v>
+                  <c:v>17460.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>19100</c:v>
+                  <c:v>18659.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20400</c:v>
+                  <c:v>18893.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29150</c:v>
+                  <c:v>20049.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21900</c:v>
+                  <c:v>20776.7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>22000</c:v>
+                  <c:v>22303.7</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>21800</c:v>
+                  <c:v>22117.3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>23550</c:v>
+                  <c:v>23607.8</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>24050</c:v>
+                  <c:v>24418.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24950</c:v>
+                  <c:v>24805.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25650</c:v>
+                  <c:v>25829.7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>28000</c:v>
+                  <c:v>26851.7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>29550</c:v>
+                  <c:v>27494.7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>28650</c:v>
+                  <c:v>28377.3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>29700</c:v>
+                  <c:v>28364</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30600</c:v>
+                  <c:v>29126.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31850</c:v>
+                  <c:v>30251</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>34000</c:v>
+                  <c:v>32243.7</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>33200</c:v>
+                  <c:v>32860.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>34400</c:v>
+                  <c:v>32836</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>37000</c:v>
+                  <c:v>35789.1</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>39350</c:v>
+                  <c:v>34870.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>37550</c:v>
+                  <c:v>36409.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>39950</c:v>
+                  <c:v>37746.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>41200</c:v>
+                  <c:v>37554.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>39600</c:v>
+                  <c:v>39678.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43300</c:v>
+                  <c:v>41716.6</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>44450</c:v>
+                  <c:v>42625.8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43300</c:v>
+                  <c:v>43505.8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>44950</c:v>
+                  <c:v>43843.3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>47100</c:v>
+                  <c:v>44744.9</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>48250</c:v>
+                  <c:v>48020.4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>49800</c:v>
+                  <c:v>47208.9</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>48050</c:v>
+                  <c:v>48634</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>52050</c:v>
+                  <c:v>49669.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53900</c:v>
+                  <c:v>51134.7</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>53550</c:v>
+                  <c:v>54597.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>57650</c:v>
+                  <c:v>51957.4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>56900</c:v>
+                  <c:v>59481</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>58850</c:v>
+                  <c:v>57431.8</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>57100</c:v>
+                  <c:v>57241.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>58000</c:v>
+                  <c:v>61284.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>62000</c:v>
+                  <c:v>61916.6</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>61850</c:v>
+                  <c:v>61236.3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>63650</c:v>
+                  <c:v>64430.2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>65300</c:v>
+                  <c:v>62100.2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>69550</c:v>
+                  <c:v>64270.6</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>65850</c:v>
+                  <c:v>66955.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>70400</c:v>
+                  <c:v>66441.3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>69250</c:v>
+                  <c:v>68022.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>72150</c:v>
+                  <c:v>69448.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>78750</c:v>
+                  <c:v>70450.2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>75450</c:v>
+                  <c:v>74353.8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>77400</c:v>
+                  <c:v>77944</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>80700</c:v>
+                  <c:v>75339.100000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +958,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$1:$CW$1</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$1:$CV$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1267,309 +1267,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$3:$CW$3</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$3:$CV$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>37.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>126.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>650</c:v>
+                  <c:v>252.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1100</c:v>
+                  <c:v>445.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1650</c:v>
+                  <c:v>732.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900</c:v>
+                  <c:v>959.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2650</c:v>
+                  <c:v>1356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3450</c:v>
+                  <c:v>1796.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4100</c:v>
+                  <c:v>2299.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4850</c:v>
+                  <c:v>2775.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5500</c:v>
+                  <c:v>3319.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6900</c:v>
+                  <c:v>3811.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7850</c:v>
+                  <c:v>4627</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8550</c:v>
+                  <c:v>5583</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10350</c:v>
+                  <c:v>6435.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10350</c:v>
+                  <c:v>8375.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12150</c:v>
+                  <c:v>7821.7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13000</c:v>
+                  <c:v>9912.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17150</c:v>
+                  <c:v>12575.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16300</c:v>
+                  <c:v>14131.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20650</c:v>
+                  <c:v>16786.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20000</c:v>
+                  <c:v>16861.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24450</c:v>
+                  <c:v>19311.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24200</c:v>
+                  <c:v>20468.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28900</c:v>
+                  <c:v>24763.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29300</c:v>
+                  <c:v>26091.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32050</c:v>
+                  <c:v>28915.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34950</c:v>
+                  <c:v>30429.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37900</c:v>
+                  <c:v>31639.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37200</c:v>
+                  <c:v>34767</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>41200</c:v>
+                  <c:v>37308.9</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45950</c:v>
+                  <c:v>40176.9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>46850</c:v>
+                  <c:v>45627.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>53900</c:v>
+                  <c:v>44686.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>51650</c:v>
+                  <c:v>47165.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71750</c:v>
+                  <c:v>51395.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>59800</c:v>
+                  <c:v>56653.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>59850</c:v>
+                  <c:v>57973</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62500</c:v>
+                  <c:v>62084.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>67450</c:v>
+                  <c:v>62956</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>71150</c:v>
+                  <c:v>65660.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>77050</c:v>
+                  <c:v>73152.3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>78300</c:v>
+                  <c:v>77024.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>79550</c:v>
+                  <c:v>78253.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>88100</c:v>
+                  <c:v>80813.100000000006</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>89750</c:v>
+                  <c:v>85234.1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>96800</c:v>
+                  <c:v>88436.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100750</c:v>
+                  <c:v>93174</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>101900</c:v>
+                  <c:v>97901.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>107050</c:v>
+                  <c:v>100684.4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>117500</c:v>
+                  <c:v>103134.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>119850</c:v>
+                  <c:v>106944.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>118850</c:v>
+                  <c:v>114075.6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>126300</c:v>
+                  <c:v>114166.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>126300</c:v>
+                  <c:v>119994.3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>134950</c:v>
+                  <c:v>125993.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>133200</c:v>
+                  <c:v>130346.6</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>138150</c:v>
+                  <c:v>134082.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>141750</c:v>
+                  <c:v>139888.70000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>148800</c:v>
+                  <c:v>141788.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>155600</c:v>
+                  <c:v>149755.4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>157150</c:v>
+                  <c:v>151330.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>168550</c:v>
+                  <c:v>156639</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>169550</c:v>
+                  <c:v>160760.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>170250</c:v>
+                  <c:v>164570.9</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>176200</c:v>
+                  <c:v>170611</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>187250</c:v>
+                  <c:v>168962.7</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>196750</c:v>
+                  <c:v>178229.4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>191250</c:v>
+                  <c:v>182111</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>193100</c:v>
+                  <c:v>188997.6</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>202150</c:v>
+                  <c:v>194598.7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>226600</c:v>
+                  <c:v>198666</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>209700</c:v>
+                  <c:v>199639</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>214750</c:v>
+                  <c:v>207075.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>230750</c:v>
+                  <c:v>215236</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>228250</c:v>
+                  <c:v>211948.1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>223050</c:v>
+                  <c:v>223125.1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>235900</c:v>
+                  <c:v>230279</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>241500</c:v>
+                  <c:v>236862.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>249000</c:v>
+                  <c:v>237042.9</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>243650</c:v>
+                  <c:v>245612.9</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>260900</c:v>
+                  <c:v>244914.9</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>257250</c:v>
+                  <c:v>251284.2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>269900</c:v>
+                  <c:v>258719.2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>272100</c:v>
+                  <c:v>272503</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>284100</c:v>
+                  <c:v>269794.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>285600</c:v>
+                  <c:v>279391</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>326550</c:v>
+                  <c:v>286203.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>306100</c:v>
+                  <c:v>286959.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>292700</c:v>
+                  <c:v>296971.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>302750</c:v>
+                  <c:v>297370.3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>315350</c:v>
+                  <c:v>309593.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>319850</c:v>
+                  <c:v>312348.90000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>335050</c:v>
+                  <c:v>331792</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>340200</c:v>
+                  <c:v>343999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>344950</c:v>
+                  <c:v>333425.8</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>360850</c:v>
+                  <c:v>334311.7</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>349300</c:v>
+                  <c:v>341898.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>448550</c:v>
+                  <c:v>350122.2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>362350</c:v>
+                  <c:v>360643.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1612,7 +1612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$1:$CW$1</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$1:$CV$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1921,309 +1921,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$4:$CW$4</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$4:$CV$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>58.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>159.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>750</c:v>
+                  <c:v>415.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300</c:v>
+                  <c:v>783.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2150</c:v>
+                  <c:v>1161.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2850</c:v>
+                  <c:v>1809.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3350</c:v>
+                  <c:v>2426.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3900</c:v>
+                  <c:v>2655.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5100</c:v>
+                  <c:v>3657.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6200</c:v>
+                  <c:v>4753.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7550</c:v>
+                  <c:v>6091.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8950</c:v>
+                  <c:v>7193.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9800</c:v>
+                  <c:v>7653.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11600</c:v>
+                  <c:v>9167.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12800</c:v>
+                  <c:v>9983.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15600</c:v>
+                  <c:v>12973.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18200</c:v>
+                  <c:v>13229.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19250</c:v>
+                  <c:v>15911.9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20400</c:v>
+                  <c:v>17206</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20050</c:v>
+                  <c:v>17129.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24300</c:v>
+                  <c:v>20896.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27200</c:v>
+                  <c:v>20659.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29200</c:v>
+                  <c:v>23425</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30900</c:v>
+                  <c:v>26314.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32250</c:v>
+                  <c:v>29625.7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36250</c:v>
+                  <c:v>30841.4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39150</c:v>
+                  <c:v>32646.3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42350</c:v>
+                  <c:v>36997.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>48350</c:v>
+                  <c:v>39916.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45700</c:v>
+                  <c:v>43505.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>48650</c:v>
+                  <c:v>48052.6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>54900</c:v>
+                  <c:v>50770.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57350</c:v>
+                  <c:v>56777.2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60650</c:v>
+                  <c:v>53389.7</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>61800</c:v>
+                  <c:v>58512.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>65600</c:v>
+                  <c:v>63586.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72950</c:v>
+                  <c:v>67924.3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>70700</c:v>
+                  <c:v>66682</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75950</c:v>
+                  <c:v>73955.100000000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80200</c:v>
+                  <c:v>76659</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>89200</c:v>
+                  <c:v>78528.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>93100</c:v>
+                  <c:v>83843.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>91650</c:v>
+                  <c:v>92064.3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>94950</c:v>
+                  <c:v>94881.7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>103550</c:v>
+                  <c:v>95679.3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>101650</c:v>
+                  <c:v>98937.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>154050</c:v>
+                  <c:v>106287.2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>113750</c:v>
+                  <c:v>110278.3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>116500</c:v>
+                  <c:v>113884.1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>125550</c:v>
+                  <c:v>119512.6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>137450</c:v>
+                  <c:v>123688.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>139100</c:v>
+                  <c:v>125825.2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>137450</c:v>
+                  <c:v>132645.1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>145550</c:v>
+                  <c:v>133957.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>147950</c:v>
+                  <c:v>145491.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>158450</c:v>
+                  <c:v>153594.9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>167550</c:v>
+                  <c:v>155960</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>172350</c:v>
+                  <c:v>164691.9</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>168450</c:v>
+                  <c:v>165833.9</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>181050</c:v>
+                  <c:v>168168.3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>188650</c:v>
+                  <c:v>179995.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>211450</c:v>
+                  <c:v>180562.3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>193350</c:v>
+                  <c:v>190312.2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>197550</c:v>
+                  <c:v>188077</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>203250</c:v>
+                  <c:v>201733</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>234600</c:v>
+                  <c:v>204578.3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>215400</c:v>
+                  <c:v>209576.3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>215300</c:v>
+                  <c:v>216035.9</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>232000</c:v>
+                  <c:v>221380.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>250000</c:v>
+                  <c:v>225818.7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>247200</c:v>
+                  <c:v>242386</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>246200</c:v>
+                  <c:v>239065.1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>260050</c:v>
+                  <c:v>247806.2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>265450</c:v>
+                  <c:v>265844.90000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>275000</c:v>
+                  <c:v>266821.2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>278450</c:v>
+                  <c:v>256953.4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>379850</c:v>
+                  <c:v>281549.2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>298350</c:v>
+                  <c:v>285208.7</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>300400</c:v>
+                  <c:v>289017</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>309300</c:v>
+                  <c:v>334874</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>311500</c:v>
+                  <c:v>346228.6</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>342150</c:v>
+                  <c:v>359355.5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>348550</c:v>
+                  <c:v>355339.7</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>330150</c:v>
+                  <c:v>365708.6</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>333950</c:v>
+                  <c:v>414523.2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>364450</c:v>
+                  <c:v>356670.1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>371400</c:v>
+                  <c:v>443013.3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>381150</c:v>
+                  <c:v>455461.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>428400</c:v>
+                  <c:v>487532.6</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>397700</c:v>
+                  <c:v>459012.2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>418700</c:v>
+                  <c:v>420967.7</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>397750</c:v>
+                  <c:v>534221.5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>424900</c:v>
+                  <c:v>700713.7</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>451850</c:v>
+                  <c:v>736950.1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>416650</c:v>
+                  <c:v>471034.1</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>428750</c:v>
+                  <c:v>413061.9</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>439750</c:v>
+                  <c:v>430515.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>446950</c:v>
+                  <c:v>428510.9</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>467900</c:v>
+                  <c:v>442376.7</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>460350</c:v>
+                  <c:v>457649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,7 +2264,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$1:$CW$1</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$1:$CV$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2573,309 +2573,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$5:$CW$5</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$5:$CV$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>118.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>600</c:v>
+                  <c:v>254.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>850</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1250</c:v>
+                  <c:v>632.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1450</c:v>
+                  <c:v>900.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2250</c:v>
+                  <c:v>1335.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2700</c:v>
+                  <c:v>2025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3650</c:v>
+                  <c:v>2579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4400</c:v>
+                  <c:v>3111.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4900</c:v>
+                  <c:v>3672.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5600</c:v>
+                  <c:v>4833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6350</c:v>
+                  <c:v>5364.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7300</c:v>
+                  <c:v>6159.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8050</c:v>
+                  <c:v>7114.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10450</c:v>
+                  <c:v>8108.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9850</c:v>
+                  <c:v>8695.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11100</c:v>
+                  <c:v>9438.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12000</c:v>
+                  <c:v>10455.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16700</c:v>
+                  <c:v>12334.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14550</c:v>
+                  <c:v>13192.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14150</c:v>
+                  <c:v>13939.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16800</c:v>
+                  <c:v>15402.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17250</c:v>
+                  <c:v>16422.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18100</c:v>
+                  <c:v>17363.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20850</c:v>
+                  <c:v>19048.3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20900</c:v>
+                  <c:v>20367.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22300</c:v>
+                  <c:v>21305.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23500</c:v>
+                  <c:v>21966.3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25000</c:v>
+                  <c:v>23438</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>25850</c:v>
+                  <c:v>24858.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28450</c:v>
+                  <c:v>26938.7</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30150</c:v>
+                  <c:v>28407.3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31100</c:v>
+                  <c:v>29840.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33050</c:v>
+                  <c:v>31011.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34650</c:v>
+                  <c:v>32957.9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36150</c:v>
+                  <c:v>34138</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37000</c:v>
+                  <c:v>35607.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39700</c:v>
+                  <c:v>37365.1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40800</c:v>
+                  <c:v>38826.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41800</c:v>
+                  <c:v>40871.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44000</c:v>
+                  <c:v>42397.4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>46300</c:v>
+                  <c:v>46694.7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>52900</c:v>
+                  <c:v>46098.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>50650</c:v>
+                  <c:v>48782</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50950</c:v>
+                  <c:v>50023.9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>55950</c:v>
+                  <c:v>51804.6</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>57650</c:v>
+                  <c:v>53814</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59050</c:v>
+                  <c:v>56239.7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62300</c:v>
+                  <c:v>57528.7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>64300</c:v>
+                  <c:v>59085.4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>63200</c:v>
+                  <c:v>62823.7</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>66950</c:v>
+                  <c:v>64501.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>67700</c:v>
+                  <c:v>66908.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>71350</c:v>
+                  <c:v>69993.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>74000</c:v>
+                  <c:v>70852.7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>74450</c:v>
+                  <c:v>73915.3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>78900</c:v>
+                  <c:v>76449.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>79700</c:v>
+                  <c:v>77721.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>83500</c:v>
+                  <c:v>80184.7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>86450</c:v>
+                  <c:v>81320.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>85800</c:v>
+                  <c:v>85779.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>94200</c:v>
+                  <c:v>86913.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>91350</c:v>
+                  <c:v>88443.8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>96550</c:v>
+                  <c:v>92756.6</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>97650</c:v>
+                  <c:v>93856.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>102800</c:v>
+                  <c:v>97268.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>103650</c:v>
+                  <c:v>99398.2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>103550</c:v>
+                  <c:v>102782.1</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>114300</c:v>
+                  <c:v>105859.4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>113000</c:v>
+                  <c:v>110112.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>119250</c:v>
+                  <c:v>111199.2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>121500</c:v>
+                  <c:v>113886.3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>123650</c:v>
+                  <c:v>115520.4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>123000</c:v>
+                  <c:v>119104.7</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>124000</c:v>
+                  <c:v>121574.1</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>130500</c:v>
+                  <c:v>123071.1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>131000</c:v>
+                  <c:v>127539.8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>136250</c:v>
+                  <c:v>131913.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>145150</c:v>
+                  <c:v>134469.4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>145900</c:v>
+                  <c:v>137169</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>146300</c:v>
+                  <c:v>139637.6</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>143400</c:v>
+                  <c:v>144330.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>150950</c:v>
+                  <c:v>147089.1</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>153600</c:v>
+                  <c:v>149741.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>154900</c:v>
+                  <c:v>153754.1</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>162500</c:v>
+                  <c:v>155548.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>165250</c:v>
+                  <c:v>159510.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>172150</c:v>
+                  <c:v>162878.6</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>170000</c:v>
+                  <c:v>165449.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>183100</c:v>
+                  <c:v>167791.2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>192450</c:v>
+                  <c:v>170604.5</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>183500</c:v>
+                  <c:v>176889.7</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188700</c:v>
+                  <c:v>192881.3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>201900</c:v>
+                  <c:v>196231.6</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>193500</c:v>
+                  <c:v>186931.1</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>194200</c:v>
+                  <c:v>189497.5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>249950</c:v>
+                  <c:v>194842.9</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198500</c:v>
+                  <c:v>197270.9</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>204800</c:v>
+                  <c:v>198436.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,7 +2916,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$1:$CW$1</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$1:$CV$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3225,309 +3225,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$6:$CW$6</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$6:$CV$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>39.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>127.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>195.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350</c:v>
+                  <c:v>274.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>337.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>750</c:v>
+                  <c:v>412.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>900</c:v>
+                  <c:v>629.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1150</c:v>
+                  <c:v>776.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1400</c:v>
+                  <c:v>828.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1700</c:v>
+                  <c:v>1110.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1850</c:v>
+                  <c:v>1278.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1950</c:v>
+                  <c:v>1511.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2250</c:v>
+                  <c:v>1822</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2600</c:v>
+                  <c:v>1959.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3050</c:v>
+                  <c:v>2290.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2950</c:v>
+                  <c:v>2626.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3600</c:v>
+                  <c:v>2995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3650</c:v>
+                  <c:v>2790.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4100</c:v>
+                  <c:v>3509.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4200</c:v>
+                  <c:v>3438.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4900</c:v>
+                  <c:v>3973.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5150</c:v>
+                  <c:v>4483.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5700</c:v>
+                  <c:v>4774.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6050</c:v>
+                  <c:v>5563.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6250</c:v>
+                  <c:v>5790</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7550</c:v>
+                  <c:v>5972.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8200</c:v>
+                  <c:v>6645.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7700</c:v>
+                  <c:v>7276.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8050</c:v>
+                  <c:v>6967.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8600</c:v>
+                  <c:v>7747.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9300</c:v>
+                  <c:v>8284</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10750</c:v>
+                  <c:v>9472.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10200</c:v>
+                  <c:v>9711</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10750</c:v>
+                  <c:v>10059.700000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11150</c:v>
+                  <c:v>10554.3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12150</c:v>
+                  <c:v>10995.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11750</c:v>
+                  <c:v>11384.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13450</c:v>
+                  <c:v>12101.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14050</c:v>
+                  <c:v>12323.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14250</c:v>
+                  <c:v>12838.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14700</c:v>
+                  <c:v>12944.3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15500</c:v>
+                  <c:v>15060.7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16050</c:v>
+                  <c:v>15773.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16450</c:v>
+                  <c:v>15695.3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15750</c:v>
+                  <c:v>16250.2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17550</c:v>
+                  <c:v>16104.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18200</c:v>
+                  <c:v>17015.8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>20800</c:v>
+                  <c:v>18413.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21850</c:v>
+                  <c:v>18733.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20650</c:v>
+                  <c:v>20401.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19750</c:v>
+                  <c:v>19197</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>21900</c:v>
+                  <c:v>21070.7</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>22550</c:v>
+                  <c:v>21599.9</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24200</c:v>
+                  <c:v>22862.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>25550</c:v>
+                  <c:v>23524.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>25750</c:v>
+                  <c:v>23419.4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>25400</c:v>
+                  <c:v>24221.1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>34750</c:v>
+                  <c:v>25765</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>28400</c:v>
+                  <c:v>26935.7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>29050</c:v>
+                  <c:v>26068.1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>30250</c:v>
+                  <c:v>27542.6</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30350</c:v>
+                  <c:v>28346.3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>31150</c:v>
+                  <c:v>28587.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>33050</c:v>
+                  <c:v>29940.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>35300</c:v>
+                  <c:v>30877.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>34900</c:v>
+                  <c:v>32525.9</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>33900</c:v>
+                  <c:v>33246.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>36800</c:v>
+                  <c:v>34909.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>38600</c:v>
+                  <c:v>34046</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>40400</c:v>
+                  <c:v>36347.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>38500</c:v>
+                  <c:v>35938.1</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>40750</c:v>
+                  <c:v>39378.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>40100</c:v>
+                  <c:v>39191.1</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>41650</c:v>
+                  <c:v>40755.4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42950</c:v>
+                  <c:v>39069.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42600</c:v>
+                  <c:v>41633.4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43650</c:v>
+                  <c:v>41177</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>45000</c:v>
+                  <c:v>47517.1</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>48200</c:v>
+                  <c:v>67098.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>47000</c:v>
+                  <c:v>45795.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>49900</c:v>
+                  <c:v>45607.8</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>52750</c:v>
+                  <c:v>49309.9</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>53900</c:v>
+                  <c:v>51114.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>57900</c:v>
+                  <c:v>49400.3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>54750</c:v>
+                  <c:v>49178.9</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>55850</c:v>
+                  <c:v>52812.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>56850</c:v>
+                  <c:v>55125.4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>55650</c:v>
+                  <c:v>55290.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>55850</c:v>
+                  <c:v>55856.7</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>61000</c:v>
+                  <c:v>55682</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>58700</c:v>
+                  <c:v>56188.2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>61550</c:v>
+                  <c:v>61858.8</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>65350</c:v>
+                  <c:v>61462.8</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>64400</c:v>
+                  <c:v>60737.2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>63450</c:v>
+                  <c:v>62048</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>81750</c:v>
+                  <c:v>63623</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>70000</c:v>
+                  <c:v>63845.3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>67900</c:v>
+                  <c:v>65798.399999999994</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>70850</c:v>
+                  <c:v>68675.100000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3570,7 +3570,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$1:$CW$1</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$1:$CV$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3879,309 +3879,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$7:$CW$7</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$7:$CV$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>61.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>450</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700</c:v>
+                  <c:v>203.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>900</c:v>
+                  <c:v>292.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1150</c:v>
+                  <c:v>350.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1350</c:v>
+                  <c:v>449.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1500</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1700</c:v>
+                  <c:v>651.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2050</c:v>
+                  <c:v>745.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2200</c:v>
+                  <c:v>822.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2350</c:v>
+                  <c:v>946.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2700</c:v>
+                  <c:v>1037.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3050</c:v>
+                  <c:v>1133.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3200</c:v>
+                  <c:v>1216.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3350</c:v>
+                  <c:v>1319.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3550</c:v>
+                  <c:v>1454.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3750</c:v>
+                  <c:v>1693</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4150</c:v>
+                  <c:v>1654.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4400</c:v>
+                  <c:v>1748.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4700</c:v>
+                  <c:v>1880.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5200</c:v>
+                  <c:v>1999.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5550</c:v>
+                  <c:v>2117.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5750</c:v>
+                  <c:v>2258.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5500</c:v>
+                  <c:v>2345.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5850</c:v>
+                  <c:v>2430.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6600</c:v>
+                  <c:v>2578.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6350</c:v>
+                  <c:v>2661.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6800</c:v>
+                  <c:v>2741.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7000</c:v>
+                  <c:v>2904.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7050</c:v>
+                  <c:v>3029</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7450</c:v>
+                  <c:v>3089.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7850</c:v>
+                  <c:v>3226.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7850</c:v>
+                  <c:v>3378</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8250</c:v>
+                  <c:v>3567</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8400</c:v>
+                  <c:v>4066.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9200</c:v>
+                  <c:v>3679.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9100</c:v>
+                  <c:v>3867.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9450</c:v>
+                  <c:v>3957.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9750</c:v>
+                  <c:v>4086.8</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9950</c:v>
+                  <c:v>4328.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10850</c:v>
+                  <c:v>4309.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10900</c:v>
+                  <c:v>4433.8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10950</c:v>
+                  <c:v>4669.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11750</c:v>
+                  <c:v>4647.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11450</c:v>
+                  <c:v>4816.7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13000</c:v>
+                  <c:v>4912.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12050</c:v>
+                  <c:v>5039.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12250</c:v>
+                  <c:v>5209</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12400</c:v>
+                  <c:v>5311.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13150</c:v>
+                  <c:v>5602.4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13750</c:v>
+                  <c:v>5567.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15750</c:v>
+                  <c:v>5749.8</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>14050</c:v>
+                  <c:v>5777.1</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14700</c:v>
+                  <c:v>5796.9</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>14550</c:v>
+                  <c:v>5978</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>14650</c:v>
+                  <c:v>6185.7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14950</c:v>
+                  <c:v>6277.7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>15150</c:v>
+                  <c:v>6426.8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>15650</c:v>
+                  <c:v>6543.4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>16150</c:v>
+                  <c:v>6833.6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>16300</c:v>
+                  <c:v>6788.3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16600</c:v>
+                  <c:v>6935.4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>16650</c:v>
+                  <c:v>7051.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>17250</c:v>
+                  <c:v>7271.3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>17200</c:v>
+                  <c:v>7405.3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17450</c:v>
+                  <c:v>7562.9</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18100</c:v>
+                  <c:v>7644.2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19050</c:v>
+                  <c:v>7789.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>18700</c:v>
+                  <c:v>7971.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>18850</c:v>
+                  <c:v>8251.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19500</c:v>
+                  <c:v>8123.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19700</c:v>
+                  <c:v>8303.2999999999993</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20550</c:v>
+                  <c:v>8589</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20200</c:v>
+                  <c:v>8722</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21250</c:v>
+                  <c:v>9186.9</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>21000</c:v>
+                  <c:v>8761</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>21350</c:v>
+                  <c:v>9526.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>20900</c:v>
+                  <c:v>9286.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>21950</c:v>
+                  <c:v>9304.4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>22050</c:v>
+                  <c:v>9591.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>23100</c:v>
+                  <c:v>9488.4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>23900</c:v>
+                  <c:v>9572.5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>23000</c:v>
+                  <c:v>9867.7999999999993</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>23200</c:v>
+                  <c:v>10477.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>23050</c:v>
+                  <c:v>10034.6</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>25400</c:v>
+                  <c:v>10488.3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26550</c:v>
+                  <c:v>10354.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>24550</c:v>
+                  <c:v>10698.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>25150</c:v>
+                  <c:v>11047.8</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>25050</c:v>
+                  <c:v>11452.2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>26450</c:v>
+                  <c:v>11180.1</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>26250</c:v>
+                  <c:v>11144.8</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>25950</c:v>
+                  <c:v>11400.3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>26700</c:v>
+                  <c:v>11495.3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>28150</c:v>
+                  <c:v>11803.2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>27200</c:v>
+                  <c:v>11986.7</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>27450</c:v>
+                  <c:v>12135</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28800</c:v>
+                  <c:v>12668.1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>31300</c:v>
+                  <c:v>13370.2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15950</c:v>
+                  <c:v>15415.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4224,7 +4224,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$1:$CW$1</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$1:$CV$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4533,309 +4533,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$8:$CW$8</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$8:$CV$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>37.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>350</c:v>
+                  <c:v>156.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>189.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>650</c:v>
+                  <c:v>256.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>700</c:v>
+                  <c:v>311.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
+                  <c:v>414.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050</c:v>
+                  <c:v>495.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1150</c:v>
+                  <c:v>519.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1300</c:v>
+                  <c:v>669.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1550</c:v>
+                  <c:v>742.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000</c:v>
+                  <c:v>899.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1850</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2300</c:v>
+                  <c:v>800.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2150</c:v>
+                  <c:v>943.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2450</c:v>
+                  <c:v>1088.5999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2650</c:v>
+                  <c:v>1137.4000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2700</c:v>
+                  <c:v>1160.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2700</c:v>
+                  <c:v>1259.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>1255.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3200</c:v>
+                  <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3300</c:v>
+                  <c:v>1407.3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3800</c:v>
+                  <c:v>1557.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3700</c:v>
+                  <c:v>1519.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4050</c:v>
+                  <c:v>1647.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3950</c:v>
+                  <c:v>1824.7</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4450</c:v>
+                  <c:v>1828.3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4850</c:v>
+                  <c:v>1878.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5150</c:v>
+                  <c:v>2089.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5050</c:v>
+                  <c:v>2108.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5150</c:v>
+                  <c:v>2177.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5450</c:v>
+                  <c:v>2241.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5300</c:v>
+                  <c:v>2411.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5700</c:v>
+                  <c:v>2397.9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5900</c:v>
+                  <c:v>2488.9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6050</c:v>
+                  <c:v>2546.9</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6350</c:v>
+                  <c:v>2804.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6400</c:v>
+                  <c:v>2668.9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6450</c:v>
+                  <c:v>2932.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6800</c:v>
+                  <c:v>2964.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7400</c:v>
+                  <c:v>3288.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7350</c:v>
+                  <c:v>3036.9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8100</c:v>
+                  <c:v>3235.9</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7600</c:v>
+                  <c:v>3575.1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7550</c:v>
+                  <c:v>3366.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7850</c:v>
+                  <c:v>3967.3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8500</c:v>
+                  <c:v>3875.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8600</c:v>
+                  <c:v>3672</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8700</c:v>
+                  <c:v>3873.2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8650</c:v>
+                  <c:v>3747.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9500</c:v>
+                  <c:v>3973</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9100</c:v>
+                  <c:v>4615</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9200</c:v>
+                  <c:v>3999.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9450</c:v>
+                  <c:v>4243.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9850</c:v>
+                  <c:v>4311.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9850</c:v>
+                  <c:v>4630.7</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10100</c:v>
+                  <c:v>4783</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10350</c:v>
+                  <c:v>4848.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10600</c:v>
+                  <c:v>4757.3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10600</c:v>
+                  <c:v>4604.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10850</c:v>
+                  <c:v>5419.2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11000</c:v>
+                  <c:v>5241.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>11150</c:v>
+                  <c:v>5043.1000000000004</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>11400</c:v>
+                  <c:v>5216.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11550</c:v>
+                  <c:v>5843.7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12050</c:v>
+                  <c:v>5242.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12100</c:v>
+                  <c:v>5510.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12600</c:v>
+                  <c:v>5695.7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>12600</c:v>
+                  <c:v>5444.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12650</c:v>
+                  <c:v>5671.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13100</c:v>
+                  <c:v>6189.9</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12800</c:v>
+                  <c:v>5890</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>13300</c:v>
+                  <c:v>6523</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>13250</c:v>
+                  <c:v>5927.6</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13500</c:v>
+                  <c:v>6669.8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>13800</c:v>
+                  <c:v>6311.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>14650</c:v>
+                  <c:v>6938.7</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14400</c:v>
+                  <c:v>6694.4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>14700</c:v>
+                  <c:v>7129.7</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14950</c:v>
+                  <c:v>7596.7</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15550</c:v>
+                  <c:v>7168.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>17050</c:v>
+                  <c:v>7567.1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>18850</c:v>
+                  <c:v>8391.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>15500</c:v>
+                  <c:v>8329.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>16250</c:v>
+                  <c:v>9102.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>18400</c:v>
+                  <c:v>8741.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>16800</c:v>
+                  <c:v>9574.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18450</c:v>
+                  <c:v>9967.9</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19200</c:v>
+                  <c:v>8040.1</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>17600</c:v>
+                  <c:v>8741</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>17900</c:v>
+                  <c:v>9359.9</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>21000</c:v>
+                  <c:v>11187.4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18650</c:v>
+                  <c:v>10912.2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>19150</c:v>
+                  <c:v>10050.299999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>20400</c:v>
+                  <c:v>10456.9</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>19200</c:v>
+                  <c:v>11356.9</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>20500</c:v>
+                  <c:v>11970.5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>20300</c:v>
+                  <c:v>14191.7</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>27000</c:v>
+                  <c:v>13428</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>22650</c:v>
+                  <c:v>12546.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4880,7 +4880,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$1:$CW$1</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$1:$CV$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -5189,309 +5189,309 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'COMPARACION WINDOWS'!$B$9:$CW$9</c:f>
+              <c:f>'COMPARACION WINDOWS'!$A$9:$CV$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>699.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1300</c:v>
+                  <c:v>1574</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2650</c:v>
+                  <c:v>2391.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2550</c:v>
+                  <c:v>3234.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3500</c:v>
+                  <c:v>4257.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4050</c:v>
+                  <c:v>4973.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5900</c:v>
+                  <c:v>6282.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5600</c:v>
+                  <c:v>7223.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14100</c:v>
+                  <c:v>7871.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16700</c:v>
+                  <c:v>8855.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8100</c:v>
+                  <c:v>9622.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9500</c:v>
+                  <c:v>10436.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10900</c:v>
+                  <c:v>11193.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17900</c:v>
+                  <c:v>12596.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12250</c:v>
+                  <c:v>13314.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12750</c:v>
+                  <c:v>14153.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18450</c:v>
+                  <c:v>15064.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19550</c:v>
+                  <c:v>15925</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29250</c:v>
+                  <c:v>16436.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15700</c:v>
+                  <c:v>18230.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20800</c:v>
+                  <c:v>18366.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16000</c:v>
+                  <c:v>19344.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16750</c:v>
+                  <c:v>20430.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23950</c:v>
+                  <c:v>21128.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20300</c:v>
+                  <c:v>22464.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28150</c:v>
+                  <c:v>23010.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19850</c:v>
+                  <c:v>24199.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21750</c:v>
+                  <c:v>25220</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28750</c:v>
+                  <c:v>25692.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22650</c:v>
+                  <c:v>26483.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>47950</c:v>
+                  <c:v>27477.7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46500</c:v>
+                  <c:v>28438.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30700</c:v>
+                  <c:v>29411.9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45700</c:v>
+                  <c:v>31116.9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28450</c:v>
+                  <c:v>30976.2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29750</c:v>
+                  <c:v>32706</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29050</c:v>
+                  <c:v>33213.4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36000</c:v>
+                  <c:v>34132.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38150</c:v>
+                  <c:v>34690</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37050</c:v>
+                  <c:v>35800.1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57250</c:v>
+                  <c:v>36568.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42050</c:v>
+                  <c:v>37415</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>31900</c:v>
+                  <c:v>38243.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>52550</c:v>
+                  <c:v>39366.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44650</c:v>
+                  <c:v>40093.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>57400</c:v>
+                  <c:v>40678.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>34400</c:v>
+                  <c:v>42360.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47250</c:v>
+                  <c:v>44649</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>35950</c:v>
+                  <c:v>44286.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45900</c:v>
+                  <c:v>44367.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>36800</c:v>
+                  <c:v>45615.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50750</c:v>
+                  <c:v>46596.4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>74550</c:v>
+                  <c:v>47573.3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45350</c:v>
+                  <c:v>49734.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>49400</c:v>
+                  <c:v>49441.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>67000</c:v>
+                  <c:v>50755.8</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44050</c:v>
+                  <c:v>51605.4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>60950</c:v>
+                  <c:v>52385.8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>45750</c:v>
+                  <c:v>54321.2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>55050</c:v>
+                  <c:v>54133.1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>64100</c:v>
+                  <c:v>55349</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>81700</c:v>
+                  <c:v>55602.8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>55400</c:v>
+                  <c:v>56977.1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>79300</c:v>
+                  <c:v>57858</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>110950</c:v>
+                  <c:v>58050.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>76450</c:v>
+                  <c:v>60161.9</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66700</c:v>
+                  <c:v>59813.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>54550</c:v>
+                  <c:v>62190.6</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>66050</c:v>
+                  <c:v>64081.7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69900</c:v>
+                  <c:v>63932.4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>138350</c:v>
+                  <c:v>65300.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>101550</c:v>
+                  <c:v>65808.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>80850</c:v>
+                  <c:v>66843.3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62100</c:v>
+                  <c:v>68605.3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82550</c:v>
+                  <c:v>69231.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>102650</c:v>
+                  <c:v>72283.3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>73950</c:v>
+                  <c:v>71745.3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>85400</c:v>
+                  <c:v>72141.8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>65650</c:v>
+                  <c:v>73097.8</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>78300</c:v>
+                  <c:v>74267.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80400</c:v>
+                  <c:v>75028.2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>66750</c:v>
+                  <c:v>77658.8</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>78400</c:v>
+                  <c:v>78708.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>87700</c:v>
+                  <c:v>79028.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>82750</c:v>
+                  <c:v>80618.899999999994</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>84900</c:v>
+                  <c:v>81072.2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>132050</c:v>
+                  <c:v>82521.8</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>95000</c:v>
+                  <c:v>85802.2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>85400</c:v>
+                  <c:v>84156.6</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104550</c:v>
+                  <c:v>85037.9</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>118100</c:v>
+                  <c:v>87319.1</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>78900</c:v>
+                  <c:v>90292.7</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>80600</c:v>
+                  <c:v>90412</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>116300</c:v>
+                  <c:v>92464.8</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>105000</c:v>
+                  <c:v>92313.8</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>102300</c:v>
+                  <c:v>93996.6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>103450</c:v>
+                  <c:v>95469.8</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>106950</c:v>
+                  <c:v>95185.1</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>106600</c:v>
+                  <c:v>96182.7</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>102000</c:v>
+                  <c:v>98580.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12729,13 +12729,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>742949</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -13126,2757 +13126,2730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3504667B-E13A-40EB-9265-F67A72628833}">
-  <dimension ref="A1:CW9"/>
+  <dimension ref="A1:CV9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:101" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
+    <row r="1" spans="1:100" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>10</v>
       </c>
       <c r="B1" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D1" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E1" s="10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F1" s="10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G1" s="10">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H1" s="10">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I1" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J1" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K1" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L1" s="10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M1" s="10">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N1" s="10">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O1" s="10">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="P1" s="10">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="10">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="R1" s="10">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="S1" s="10">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="T1" s="10">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="U1" s="10">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="V1" s="10">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="W1" s="10">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X1" s="10">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Y1" s="10">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Z1" s="10">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AA1" s="10">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AB1" s="10">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AC1" s="10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AD1" s="10">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AE1" s="10">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AF1" s="10">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AG1" s="10">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AH1" s="10">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AI1" s="10">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AJ1" s="10">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AK1" s="10">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AL1" s="10">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AM1" s="10">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AN1" s="10">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AO1" s="10">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AP1" s="10">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AQ1" s="10">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AR1" s="10">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AS1" s="10">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AT1" s="10">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AU1" s="10">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AV1" s="10">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AW1" s="10">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AX1" s="10">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AY1" s="10">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AZ1" s="10">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="BA1" s="10">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="BB1" s="10">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="BC1" s="10">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="BD1" s="10">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="BE1" s="10">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="BF1" s="10">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="BG1" s="10">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="BH1" s="10">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="BI1" s="10">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="BJ1" s="10">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="BK1" s="10">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="BL1" s="10">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="BM1" s="10">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="BN1" s="10">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="BO1" s="10">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="BP1" s="10">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="BQ1" s="10">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="BR1" s="10">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="BS1" s="10">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="BT1" s="10">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="BU1" s="10">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="BV1" s="10">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="BW1" s="10">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="BX1" s="10">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="BY1" s="10">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="BZ1" s="10">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="CA1" s="10">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="CB1" s="10">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="CC1" s="10">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="CD1" s="10">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="CE1" s="10">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="CF1" s="10">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="CG1" s="10">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="CH1" s="10">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="CI1" s="10">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="CJ1" s="10">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="CK1" s="10">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="CL1" s="10">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="CM1" s="10">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="CN1" s="10">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="CO1" s="10">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="CP1" s="10">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="CQ1" s="10">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="CR1" s="10">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="CS1" s="10">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="CT1" s="10">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="CU1" s="10">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="CV1" s="10">
-        <v>990</v>
-      </c>
-      <c r="CW1" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:101" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:100" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>30.3</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>58.4</v>
       </c>
       <c r="C2" s="1">
-        <v>200</v>
+        <v>114.7</v>
       </c>
       <c r="D2" s="1">
-        <v>250</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>350</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="F2" s="1">
-        <v>450</v>
+        <v>289.60000000000002</v>
       </c>
       <c r="G2" s="1">
-        <v>550</v>
+        <v>440.6</v>
       </c>
       <c r="H2" s="1">
-        <v>600</v>
+        <v>682.8</v>
       </c>
       <c r="I2" s="1">
-        <v>850</v>
+        <v>786</v>
       </c>
       <c r="J2" s="1">
-        <v>1050</v>
+        <v>906.8</v>
       </c>
       <c r="K2" s="1">
-        <v>1550</v>
+        <v>1242.7</v>
       </c>
       <c r="L2" s="1">
-        <v>1650</v>
+        <v>1433.1</v>
       </c>
       <c r="M2" s="1">
-        <v>1800</v>
+        <v>1641.7</v>
       </c>
       <c r="N2" s="1">
-        <v>1850</v>
+        <v>1897.8</v>
       </c>
       <c r="O2" s="1">
-        <v>2350</v>
+        <v>2465.5</v>
       </c>
       <c r="P2" s="1">
-        <v>2400</v>
+        <v>2392.1999999999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>3150</v>
+        <v>2927</v>
       </c>
       <c r="R2" s="1">
-        <v>2850</v>
+        <v>3154.8</v>
       </c>
       <c r="S2" s="1">
-        <v>3800</v>
+        <v>3290.4</v>
       </c>
       <c r="T2" s="1">
-        <v>3900</v>
+        <v>4084.3</v>
       </c>
       <c r="U2" s="1">
-        <v>4300</v>
+        <v>4338.3</v>
       </c>
       <c r="V2" s="1">
-        <v>4550</v>
+        <v>4648.8</v>
       </c>
       <c r="W2" s="1">
-        <v>4850</v>
+        <v>5134.7</v>
       </c>
       <c r="X2" s="1">
-        <v>5000</v>
+        <v>5567.1</v>
       </c>
       <c r="Y2" s="1">
-        <v>6150</v>
+        <v>6067</v>
       </c>
       <c r="Z2" s="1">
-        <v>6550</v>
+        <v>6424.6</v>
       </c>
       <c r="AA2" s="1">
-        <v>6700</v>
+        <v>6549.2</v>
       </c>
       <c r="AB2" s="1">
-        <v>7100</v>
+        <v>7234.8</v>
       </c>
       <c r="AC2" s="1">
-        <v>7850</v>
+        <v>7814.7</v>
       </c>
       <c r="AD2" s="1">
-        <v>8450</v>
+        <v>7979.1</v>
       </c>
       <c r="AE2" s="1">
-        <v>8500</v>
+        <v>9230.2999999999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>9100</v>
+        <v>9793.4</v>
       </c>
       <c r="AG2" s="1">
-        <v>9350</v>
+        <v>9775.2999999999993</v>
       </c>
       <c r="AH2" s="1">
-        <v>10300</v>
+        <v>10386.1</v>
       </c>
       <c r="AI2" s="1">
-        <v>10600</v>
+        <v>10583</v>
       </c>
       <c r="AJ2" s="1">
-        <v>11100</v>
+        <v>11570.3</v>
       </c>
       <c r="AK2" s="1">
-        <v>11050</v>
+        <v>11691</v>
       </c>
       <c r="AL2" s="1">
-        <v>12500</v>
+        <v>12771.8</v>
       </c>
       <c r="AM2" s="1">
-        <v>12700</v>
+        <v>13482.7</v>
       </c>
       <c r="AN2" s="1">
-        <v>14150</v>
+        <v>13528.6</v>
       </c>
       <c r="AO2" s="1">
-        <v>14750</v>
+        <v>13625.4</v>
       </c>
       <c r="AP2" s="1">
-        <v>14600</v>
+        <v>15042.9</v>
       </c>
       <c r="AQ2" s="1">
-        <v>15800</v>
+        <v>15550.1</v>
       </c>
       <c r="AR2" s="1">
-        <v>17100</v>
+        <v>16493.599999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>17600</v>
+        <v>17216.900000000001</v>
       </c>
       <c r="AT2" s="1">
-        <v>17800</v>
+        <v>17460.599999999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>17950</v>
+        <v>18659.900000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>19100</v>
+        <v>18893.900000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>20400</v>
+        <v>20049.099999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>29150</v>
+        <v>20776.7</v>
       </c>
       <c r="AY2" s="1">
-        <v>21900</v>
+        <v>22303.7</v>
       </c>
       <c r="AZ2" s="1">
-        <v>22000</v>
+        <v>22117.3</v>
       </c>
       <c r="BA2" s="1">
-        <v>21800</v>
+        <v>23607.8</v>
       </c>
       <c r="BB2" s="1">
-        <v>23550</v>
+        <v>24418.5</v>
       </c>
       <c r="BC2" s="1">
-        <v>24050</v>
+        <v>24805.9</v>
       </c>
       <c r="BD2" s="1">
-        <v>24950</v>
+        <v>25829.7</v>
       </c>
       <c r="BE2" s="1">
-        <v>25650</v>
+        <v>26851.7</v>
       </c>
       <c r="BF2" s="1">
-        <v>28000</v>
+        <v>27494.7</v>
       </c>
       <c r="BG2" s="1">
-        <v>29550</v>
+        <v>28377.3</v>
       </c>
       <c r="BH2" s="1">
-        <v>28650</v>
+        <v>28364</v>
       </c>
       <c r="BI2" s="1">
-        <v>29700</v>
+        <v>29126.6</v>
       </c>
       <c r="BJ2" s="1">
-        <v>30600</v>
+        <v>30251</v>
       </c>
       <c r="BK2" s="1">
-        <v>31850</v>
+        <v>32243.7</v>
       </c>
       <c r="BL2" s="1">
-        <v>34000</v>
+        <v>32860.199999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>33200</v>
+        <v>32836</v>
       </c>
       <c r="BN2" s="1">
-        <v>34400</v>
+        <v>35789.1</v>
       </c>
       <c r="BO2" s="1">
-        <v>37000</v>
+        <v>34870.699999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>39350</v>
+        <v>36409.199999999997</v>
       </c>
       <c r="BQ2" s="1">
-        <v>37550</v>
+        <v>37746.400000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>39950</v>
+        <v>37554.5</v>
       </c>
       <c r="BS2" s="1">
-        <v>41200</v>
+        <v>39678.1</v>
       </c>
       <c r="BT2" s="1">
-        <v>39600</v>
+        <v>41716.6</v>
       </c>
       <c r="BU2" s="1">
-        <v>43300</v>
+        <v>42625.8</v>
       </c>
       <c r="BV2" s="1">
-        <v>44450</v>
+        <v>43505.8</v>
       </c>
       <c r="BW2" s="1">
-        <v>43300</v>
+        <v>43843.3</v>
       </c>
       <c r="BX2" s="1">
-        <v>44950</v>
+        <v>44744.9</v>
       </c>
       <c r="BY2" s="1">
-        <v>47100</v>
+        <v>48020.4</v>
       </c>
       <c r="BZ2" s="1">
-        <v>48250</v>
+        <v>47208.9</v>
       </c>
       <c r="CA2" s="1">
-        <v>49800</v>
+        <v>48634</v>
       </c>
       <c r="CB2" s="1">
-        <v>48050</v>
+        <v>49669.5</v>
       </c>
       <c r="CC2" s="1">
-        <v>52050</v>
+        <v>51134.7</v>
       </c>
       <c r="CD2" s="1">
-        <v>53900</v>
+        <v>54597.599999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>53550</v>
+        <v>51957.4</v>
       </c>
       <c r="CF2" s="1">
-        <v>57650</v>
+        <v>59481</v>
       </c>
       <c r="CG2" s="1">
-        <v>56900</v>
+        <v>57431.8</v>
       </c>
       <c r="CH2" s="1">
-        <v>58850</v>
+        <v>57241.599999999999</v>
       </c>
       <c r="CI2" s="1">
-        <v>57100</v>
+        <v>61284.6</v>
       </c>
       <c r="CJ2" s="1">
-        <v>58000</v>
+        <v>61916.6</v>
       </c>
       <c r="CK2" s="1">
-        <v>62000</v>
+        <v>61236.3</v>
       </c>
       <c r="CL2" s="1">
-        <v>61850</v>
+        <v>64430.2</v>
       </c>
       <c r="CM2" s="1">
-        <v>63650</v>
+        <v>62100.2</v>
       </c>
       <c r="CN2" s="1">
-        <v>65300</v>
+        <v>64270.6</v>
       </c>
       <c r="CO2" s="1">
-        <v>69550</v>
+        <v>66955.199999999997</v>
       </c>
       <c r="CP2" s="1">
-        <v>65850</v>
+        <v>66441.3</v>
       </c>
       <c r="CQ2" s="1">
-        <v>70400</v>
+        <v>68022.399999999994</v>
       </c>
       <c r="CR2" s="1">
-        <v>69250</v>
+        <v>69448.600000000006</v>
       </c>
       <c r="CS2" s="1">
-        <v>72150</v>
+        <v>70450.2</v>
       </c>
       <c r="CT2" s="1">
-        <v>78750</v>
+        <v>74353.8</v>
       </c>
       <c r="CU2" s="1">
-        <v>75450</v>
+        <v>77944</v>
       </c>
       <c r="CV2" s="1">
-        <v>77400</v>
-      </c>
-      <c r="CW2" s="1">
-        <v>80700</v>
+        <v>75339.100000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:100" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>37.200000000000003</v>
       </c>
       <c r="B3" s="2">
-        <v>150</v>
+        <v>126.6</v>
       </c>
       <c r="C3" s="2">
-        <v>300</v>
+        <v>252.3</v>
       </c>
       <c r="D3" s="2">
-        <v>650</v>
+        <v>445.7</v>
       </c>
       <c r="E3" s="2">
-        <v>1100</v>
+        <v>732.1</v>
       </c>
       <c r="F3" s="2">
-        <v>1650</v>
+        <v>959.6</v>
       </c>
       <c r="G3" s="2">
-        <v>1900</v>
+        <v>1356</v>
       </c>
       <c r="H3" s="2">
-        <v>2650</v>
+        <v>1796.6</v>
       </c>
       <c r="I3" s="2">
-        <v>3450</v>
+        <v>2299.1999999999998</v>
       </c>
       <c r="J3" s="2">
-        <v>4100</v>
+        <v>2775.2</v>
       </c>
       <c r="K3" s="2">
-        <v>4850</v>
+        <v>3319.3</v>
       </c>
       <c r="L3" s="2">
-        <v>5500</v>
+        <v>3811.5</v>
       </c>
       <c r="M3" s="2">
-        <v>6900</v>
+        <v>4627</v>
       </c>
       <c r="N3" s="2">
-        <v>7850</v>
+        <v>5583</v>
       </c>
       <c r="O3" s="2">
-        <v>8550</v>
+        <v>6435.3</v>
       </c>
       <c r="P3" s="2">
-        <v>10350</v>
+        <v>8375.1</v>
       </c>
       <c r="Q3" s="2">
-        <v>10350</v>
+        <v>7821.7</v>
       </c>
       <c r="R3" s="2">
-        <v>12150</v>
+        <v>9912.4</v>
       </c>
       <c r="S3" s="2">
-        <v>13000</v>
+        <v>12575.1</v>
       </c>
       <c r="T3" s="2">
-        <v>17150</v>
+        <v>14131.3</v>
       </c>
       <c r="U3" s="2">
-        <v>16300</v>
+        <v>16786.3</v>
       </c>
       <c r="V3" s="2">
-        <v>20650</v>
+        <v>16861.5</v>
       </c>
       <c r="W3" s="2">
-        <v>20000</v>
+        <v>19311.099999999999</v>
       </c>
       <c r="X3" s="2">
-        <v>24450</v>
+        <v>20468.099999999999</v>
       </c>
       <c r="Y3" s="2">
-        <v>24200</v>
+        <v>24763.3</v>
       </c>
       <c r="Z3" s="2">
-        <v>28900</v>
+        <v>26091.599999999999</v>
       </c>
       <c r="AA3" s="2">
-        <v>29300</v>
+        <v>28915.7</v>
       </c>
       <c r="AB3" s="2">
-        <v>32050</v>
+        <v>30429.5</v>
       </c>
       <c r="AC3" s="2">
-        <v>34950</v>
+        <v>31639.9</v>
       </c>
       <c r="AD3" s="2">
-        <v>37900</v>
+        <v>34767</v>
       </c>
       <c r="AE3" s="2">
-        <v>37200</v>
+        <v>37308.9</v>
       </c>
       <c r="AF3" s="2">
-        <v>41200</v>
+        <v>40176.9</v>
       </c>
       <c r="AG3" s="2">
-        <v>45950</v>
+        <v>45627.6</v>
       </c>
       <c r="AH3" s="2">
-        <v>46850</v>
+        <v>44686.1</v>
       </c>
       <c r="AI3" s="2">
-        <v>53900</v>
+        <v>47165.5</v>
       </c>
       <c r="AJ3" s="2">
-        <v>51650</v>
+        <v>51395.6</v>
       </c>
       <c r="AK3" s="2">
-        <v>71750</v>
+        <v>56653.2</v>
       </c>
       <c r="AL3" s="2">
-        <v>59800</v>
+        <v>57973</v>
       </c>
       <c r="AM3" s="2">
-        <v>59850</v>
+        <v>62084.3</v>
       </c>
       <c r="AN3" s="2">
-        <v>62500</v>
+        <v>62956</v>
       </c>
       <c r="AO3" s="2">
-        <v>67450</v>
+        <v>65660.600000000006</v>
       </c>
       <c r="AP3" s="2">
-        <v>71150</v>
+        <v>73152.3</v>
       </c>
       <c r="AQ3" s="2">
-        <v>77050</v>
+        <v>77024.2</v>
       </c>
       <c r="AR3" s="2">
-        <v>78300</v>
+        <v>78253.600000000006</v>
       </c>
       <c r="AS3" s="2">
-        <v>79550</v>
+        <v>80813.100000000006</v>
       </c>
       <c r="AT3" s="2">
-        <v>88100</v>
+        <v>85234.1</v>
       </c>
       <c r="AU3" s="2">
-        <v>89750</v>
+        <v>88436.3</v>
       </c>
       <c r="AV3" s="2">
-        <v>96800</v>
+        <v>93174</v>
       </c>
       <c r="AW3" s="2">
-        <v>100750</v>
+        <v>97901.5</v>
       </c>
       <c r="AX3" s="2">
-        <v>101900</v>
+        <v>100684.4</v>
       </c>
       <c r="AY3" s="2">
-        <v>107050</v>
+        <v>103134.2</v>
       </c>
       <c r="AZ3" s="2">
-        <v>117500</v>
+        <v>106944.5</v>
       </c>
       <c r="BA3" s="2">
-        <v>119850</v>
+        <v>114075.6</v>
       </c>
       <c r="BB3" s="2">
-        <v>118850</v>
+        <v>114166.2</v>
       </c>
       <c r="BC3" s="2">
-        <v>126300</v>
+        <v>119994.3</v>
       </c>
       <c r="BD3" s="2">
-        <v>126300</v>
+        <v>125993.5</v>
       </c>
       <c r="BE3" s="2">
-        <v>134950</v>
+        <v>130346.6</v>
       </c>
       <c r="BF3" s="2">
-        <v>133200</v>
+        <v>134082.29999999999</v>
       </c>
       <c r="BG3" s="2">
-        <v>138150</v>
+        <v>139888.70000000001</v>
       </c>
       <c r="BH3" s="2">
-        <v>141750</v>
+        <v>141788.5</v>
       </c>
       <c r="BI3" s="2">
-        <v>148800</v>
+        <v>149755.4</v>
       </c>
       <c r="BJ3" s="2">
-        <v>155600</v>
+        <v>151330.6</v>
       </c>
       <c r="BK3" s="2">
-        <v>157150</v>
+        <v>156639</v>
       </c>
       <c r="BL3" s="2">
-        <v>168550</v>
+        <v>160760.29999999999</v>
       </c>
       <c r="BM3" s="2">
-        <v>169550</v>
+        <v>164570.9</v>
       </c>
       <c r="BN3" s="2">
-        <v>170250</v>
+        <v>170611</v>
       </c>
       <c r="BO3" s="2">
-        <v>176200</v>
+        <v>168962.7</v>
       </c>
       <c r="BP3" s="2">
-        <v>187250</v>
+        <v>178229.4</v>
       </c>
       <c r="BQ3" s="2">
-        <v>196750</v>
+        <v>182111</v>
       </c>
       <c r="BR3" s="2">
-        <v>191250</v>
+        <v>188997.6</v>
       </c>
       <c r="BS3" s="2">
-        <v>193100</v>
+        <v>194598.7</v>
       </c>
       <c r="BT3" s="2">
-        <v>202150</v>
+        <v>198666</v>
       </c>
       <c r="BU3" s="2">
-        <v>226600</v>
+        <v>199639</v>
       </c>
       <c r="BV3" s="2">
-        <v>209700</v>
+        <v>207075.5</v>
       </c>
       <c r="BW3" s="2">
-        <v>214750</v>
+        <v>215236</v>
       </c>
       <c r="BX3" s="2">
-        <v>230750</v>
+        <v>211948.1</v>
       </c>
       <c r="BY3" s="2">
-        <v>228250</v>
+        <v>223125.1</v>
       </c>
       <c r="BZ3" s="2">
-        <v>223050</v>
+        <v>230279</v>
       </c>
       <c r="CA3" s="2">
-        <v>235900</v>
+        <v>236862.5</v>
       </c>
       <c r="CB3" s="2">
-        <v>241500</v>
+        <v>237042.9</v>
       </c>
       <c r="CC3" s="2">
-        <v>249000</v>
+        <v>245612.9</v>
       </c>
       <c r="CD3" s="2">
-        <v>243650</v>
+        <v>244914.9</v>
       </c>
       <c r="CE3" s="2">
-        <v>260900</v>
+        <v>251284.2</v>
       </c>
       <c r="CF3" s="2">
-        <v>257250</v>
+        <v>258719.2</v>
       </c>
       <c r="CG3" s="2">
-        <v>269900</v>
+        <v>272503</v>
       </c>
       <c r="CH3" s="2">
-        <v>272100</v>
+        <v>269794.59999999998</v>
       </c>
       <c r="CI3" s="2">
-        <v>284100</v>
+        <v>279391</v>
       </c>
       <c r="CJ3" s="2">
-        <v>285600</v>
+        <v>286203.59999999998</v>
       </c>
       <c r="CK3" s="2">
-        <v>326550</v>
+        <v>286959.09999999998</v>
       </c>
       <c r="CL3" s="2">
-        <v>306100</v>
+        <v>296971.09999999998</v>
       </c>
       <c r="CM3" s="2">
-        <v>292700</v>
+        <v>297370.3</v>
       </c>
       <c r="CN3" s="2">
-        <v>302750</v>
+        <v>309593.59999999998</v>
       </c>
       <c r="CO3" s="2">
-        <v>315350</v>
+        <v>312348.90000000002</v>
       </c>
       <c r="CP3" s="2">
-        <v>319850</v>
+        <v>331792</v>
       </c>
       <c r="CQ3" s="2">
-        <v>335050</v>
+        <v>343999</v>
       </c>
       <c r="CR3" s="2">
-        <v>340200</v>
+        <v>333425.8</v>
       </c>
       <c r="CS3" s="2">
-        <v>344950</v>
+        <v>334311.7</v>
       </c>
       <c r="CT3" s="2">
-        <v>360850</v>
+        <v>341898.5</v>
       </c>
       <c r="CU3" s="2">
-        <v>349300</v>
+        <v>350122.2</v>
       </c>
       <c r="CV3" s="2">
-        <v>448550</v>
-      </c>
-      <c r="CW3" s="2">
-        <v>362350</v>
+        <v>360643.8</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>58.7</v>
       </c>
       <c r="B4" s="3">
-        <v>200</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>350</v>
+        <v>415.5</v>
       </c>
       <c r="D4" s="3">
-        <v>750</v>
+        <v>783.4</v>
       </c>
       <c r="E4" s="3">
-        <v>1300</v>
+        <v>1161.4000000000001</v>
       </c>
       <c r="F4" s="3">
-        <v>2150</v>
+        <v>1809.7</v>
       </c>
       <c r="G4" s="3">
-        <v>2850</v>
+        <v>2426.3000000000002</v>
       </c>
       <c r="H4" s="3">
-        <v>3350</v>
+        <v>2655.6</v>
       </c>
       <c r="I4" s="3">
-        <v>3900</v>
+        <v>3657.9</v>
       </c>
       <c r="J4" s="3">
-        <v>5100</v>
+        <v>4753.5</v>
       </c>
       <c r="K4" s="3">
-        <v>6200</v>
+        <v>6091.1</v>
       </c>
       <c r="L4" s="3">
-        <v>7550</v>
+        <v>7193.4</v>
       </c>
       <c r="M4" s="3">
-        <v>8950</v>
+        <v>7653.1</v>
       </c>
       <c r="N4" s="3">
-        <v>9800</v>
+        <v>9167.6</v>
       </c>
       <c r="O4" s="3">
-        <v>11600</v>
+        <v>9983.2999999999993</v>
       </c>
       <c r="P4" s="3">
-        <v>12800</v>
+        <v>12973.1</v>
       </c>
       <c r="Q4" s="3">
-        <v>15600</v>
+        <v>13229.2</v>
       </c>
       <c r="R4" s="3">
-        <v>18200</v>
+        <v>15911.9</v>
       </c>
       <c r="S4" s="3">
-        <v>19250</v>
+        <v>17206</v>
       </c>
       <c r="T4" s="3">
-        <v>20400</v>
+        <v>17129.599999999999</v>
       </c>
       <c r="U4" s="3">
-        <v>20050</v>
+        <v>20896.099999999999</v>
       </c>
       <c r="V4" s="3">
-        <v>24300</v>
+        <v>20659.599999999999</v>
       </c>
       <c r="W4" s="3">
-        <v>27200</v>
+        <v>23425</v>
       </c>
       <c r="X4" s="3">
-        <v>29200</v>
+        <v>26314.799999999999</v>
       </c>
       <c r="Y4" s="3">
-        <v>30900</v>
+        <v>29625.7</v>
       </c>
       <c r="Z4" s="3">
-        <v>32250</v>
+        <v>30841.4</v>
       </c>
       <c r="AA4" s="3">
-        <v>36250</v>
+        <v>32646.3</v>
       </c>
       <c r="AB4" s="3">
-        <v>39150</v>
+        <v>36997.699999999997</v>
       </c>
       <c r="AC4" s="3">
-        <v>42350</v>
+        <v>39916.699999999997</v>
       </c>
       <c r="AD4" s="3">
-        <v>48350</v>
+        <v>43505.8</v>
       </c>
       <c r="AE4" s="3">
-        <v>45700</v>
+        <v>48052.6</v>
       </c>
       <c r="AF4" s="3">
-        <v>48650</v>
+        <v>50770.6</v>
       </c>
       <c r="AG4" s="3">
-        <v>54900</v>
+        <v>56777.2</v>
       </c>
       <c r="AH4" s="3">
-        <v>57350</v>
+        <v>53389.7</v>
       </c>
       <c r="AI4" s="3">
-        <v>60650</v>
+        <v>58512.5</v>
       </c>
       <c r="AJ4" s="3">
-        <v>61800</v>
+        <v>63586.400000000001</v>
       </c>
       <c r="AK4" s="3">
-        <v>65600</v>
+        <v>67924.3</v>
       </c>
       <c r="AL4" s="3">
-        <v>72950</v>
+        <v>66682</v>
       </c>
       <c r="AM4" s="3">
-        <v>70700</v>
+        <v>73955.100000000006</v>
       </c>
       <c r="AN4" s="3">
-        <v>75950</v>
+        <v>76659</v>
       </c>
       <c r="AO4" s="3">
-        <v>80200</v>
+        <v>78528.899999999994</v>
       </c>
       <c r="AP4" s="3">
-        <v>89200</v>
+        <v>83843.899999999994</v>
       </c>
       <c r="AQ4" s="3">
-        <v>93100</v>
+        <v>92064.3</v>
       </c>
       <c r="AR4" s="3">
-        <v>91650</v>
+        <v>94881.7</v>
       </c>
       <c r="AS4" s="3">
-        <v>94950</v>
+        <v>95679.3</v>
       </c>
       <c r="AT4" s="3">
-        <v>103550</v>
+        <v>98937.8</v>
       </c>
       <c r="AU4" s="3">
-        <v>101650</v>
+        <v>106287.2</v>
       </c>
       <c r="AV4" s="3">
-        <v>154050</v>
+        <v>110278.3</v>
       </c>
       <c r="AW4" s="3">
-        <v>113750</v>
+        <v>113884.1</v>
       </c>
       <c r="AX4" s="3">
-        <v>116500</v>
+        <v>119512.6</v>
       </c>
       <c r="AY4" s="3">
-        <v>125550</v>
+        <v>123688.5</v>
       </c>
       <c r="AZ4" s="3">
-        <v>137450</v>
+        <v>125825.2</v>
       </c>
       <c r="BA4" s="3">
-        <v>139100</v>
+        <v>132645.1</v>
       </c>
       <c r="BB4" s="3">
-        <v>137450</v>
+        <v>133957.20000000001</v>
       </c>
       <c r="BC4" s="3">
-        <v>145550</v>
+        <v>145491.5</v>
       </c>
       <c r="BD4" s="3">
-        <v>147950</v>
+        <v>153594.9</v>
       </c>
       <c r="BE4" s="3">
-        <v>158450</v>
+        <v>155960</v>
       </c>
       <c r="BF4" s="3">
-        <v>167550</v>
+        <v>164691.9</v>
       </c>
       <c r="BG4" s="3">
-        <v>172350</v>
+        <v>165833.9</v>
       </c>
       <c r="BH4" s="3">
-        <v>168450</v>
+        <v>168168.3</v>
       </c>
       <c r="BI4" s="3">
-        <v>181050</v>
+        <v>179995.6</v>
       </c>
       <c r="BJ4" s="3">
-        <v>188650</v>
+        <v>180562.3</v>
       </c>
       <c r="BK4" s="3">
-        <v>211450</v>
+        <v>190312.2</v>
       </c>
       <c r="BL4" s="3">
-        <v>193350</v>
+        <v>188077</v>
       </c>
       <c r="BM4" s="3">
-        <v>197550</v>
+        <v>201733</v>
       </c>
       <c r="BN4" s="3">
-        <v>203250</v>
+        <v>204578.3</v>
       </c>
       <c r="BO4" s="3">
-        <v>234600</v>
+        <v>209576.3</v>
       </c>
       <c r="BP4" s="3">
-        <v>215400</v>
+        <v>216035.9</v>
       </c>
       <c r="BQ4" s="3">
-        <v>215300</v>
+        <v>221380.5</v>
       </c>
       <c r="BR4" s="3">
-        <v>232000</v>
+        <v>225818.7</v>
       </c>
       <c r="BS4" s="3">
-        <v>250000</v>
+        <v>242386</v>
       </c>
       <c r="BT4" s="3">
-        <v>247200</v>
+        <v>239065.1</v>
       </c>
       <c r="BU4" s="3">
-        <v>246200</v>
+        <v>247806.2</v>
       </c>
       <c r="BV4" s="3">
-        <v>260050</v>
+        <v>265844.90000000002</v>
       </c>
       <c r="BW4" s="3">
-        <v>265450</v>
+        <v>266821.2</v>
       </c>
       <c r="BX4" s="3">
-        <v>275000</v>
+        <v>256953.4</v>
       </c>
       <c r="BY4" s="3">
-        <v>278450</v>
+        <v>281549.2</v>
       </c>
       <c r="BZ4" s="3">
-        <v>379850</v>
+        <v>285208.7</v>
       </c>
       <c r="CA4" s="3">
-        <v>298350</v>
+        <v>289017</v>
       </c>
       <c r="CB4" s="3">
-        <v>300400</v>
+        <v>334874</v>
       </c>
       <c r="CC4" s="3">
-        <v>309300</v>
+        <v>346228.6</v>
       </c>
       <c r="CD4" s="3">
-        <v>311500</v>
+        <v>359355.5</v>
       </c>
       <c r="CE4" s="3">
-        <v>342150</v>
+        <v>355339.7</v>
       </c>
       <c r="CF4" s="3">
-        <v>348550</v>
+        <v>365708.6</v>
       </c>
       <c r="CG4" s="3">
-        <v>330150</v>
+        <v>414523.2</v>
       </c>
       <c r="CH4" s="3">
-        <v>333950</v>
+        <v>356670.1</v>
       </c>
       <c r="CI4" s="3">
-        <v>364450</v>
+        <v>443013.3</v>
       </c>
       <c r="CJ4" s="3">
-        <v>371400</v>
+        <v>455461.5</v>
       </c>
       <c r="CK4" s="3">
-        <v>381150</v>
+        <v>487532.6</v>
       </c>
       <c r="CL4" s="3">
-        <v>428400</v>
+        <v>459012.2</v>
       </c>
       <c r="CM4" s="3">
-        <v>397700</v>
+        <v>420967.7</v>
       </c>
       <c r="CN4" s="3">
-        <v>418700</v>
+        <v>534221.5</v>
       </c>
       <c r="CO4" s="3">
-        <v>397750</v>
+        <v>700713.7</v>
       </c>
       <c r="CP4" s="3">
-        <v>424900</v>
+        <v>736950.1</v>
       </c>
       <c r="CQ4" s="3">
-        <v>451850</v>
+        <v>471034.1</v>
       </c>
       <c r="CR4" s="3">
-        <v>416650</v>
+        <v>413061.9</v>
       </c>
       <c r="CS4" s="3">
-        <v>428750</v>
+        <v>430515.20000000001</v>
       </c>
       <c r="CT4" s="3">
-        <v>439750</v>
+        <v>428510.9</v>
       </c>
       <c r="CU4" s="3">
-        <v>446950</v>
+        <v>442376.7</v>
       </c>
       <c r="CV4" s="3">
-        <v>467900</v>
-      </c>
-      <c r="CW4" s="3">
-        <v>460350</v>
+        <v>457649</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>46</v>
       </c>
       <c r="B5" s="4">
-        <v>150</v>
+        <v>118.7</v>
       </c>
       <c r="C5" s="4">
-        <v>400</v>
+        <v>254.9</v>
       </c>
       <c r="D5" s="4">
-        <v>600</v>
+        <v>426</v>
       </c>
       <c r="E5" s="4">
-        <v>850</v>
+        <v>632.5</v>
       </c>
       <c r="F5" s="4">
-        <v>1250</v>
+        <v>900.7</v>
       </c>
       <c r="G5" s="4">
-        <v>1450</v>
+        <v>1335.4</v>
       </c>
       <c r="H5" s="4">
-        <v>2250</v>
+        <v>2025</v>
       </c>
       <c r="I5" s="4">
-        <v>2700</v>
+        <v>2579</v>
       </c>
       <c r="J5" s="4">
-        <v>3650</v>
+        <v>3111.8</v>
       </c>
       <c r="K5" s="4">
-        <v>4400</v>
+        <v>3672.9</v>
       </c>
       <c r="L5" s="4">
-        <v>4900</v>
+        <v>4833</v>
       </c>
       <c r="M5" s="4">
-        <v>5600</v>
+        <v>5364.3</v>
       </c>
       <c r="N5" s="4">
-        <v>6350</v>
+        <v>6159.7</v>
       </c>
       <c r="O5" s="4">
-        <v>7300</v>
+        <v>7114.6</v>
       </c>
       <c r="P5" s="4">
-        <v>8050</v>
+        <v>8108.2</v>
       </c>
       <c r="Q5" s="4">
-        <v>10450</v>
+        <v>8695.5</v>
       </c>
       <c r="R5" s="4">
-        <v>9850</v>
+        <v>9438.7000000000007</v>
       </c>
       <c r="S5" s="4">
-        <v>11100</v>
+        <v>10455.1</v>
       </c>
       <c r="T5" s="4">
-        <v>12000</v>
+        <v>12334.7</v>
       </c>
       <c r="U5" s="4">
-        <v>16700</v>
+        <v>13192.6</v>
       </c>
       <c r="V5" s="4">
-        <v>14550</v>
+        <v>13939.5</v>
       </c>
       <c r="W5" s="4">
-        <v>14150</v>
+        <v>15402.2</v>
       </c>
       <c r="X5" s="4">
-        <v>16800</v>
+        <v>16422.400000000001</v>
       </c>
       <c r="Y5" s="4">
-        <v>17250</v>
+        <v>17363.8</v>
       </c>
       <c r="Z5" s="4">
-        <v>18100</v>
+        <v>19048.3</v>
       </c>
       <c r="AA5" s="4">
-        <v>20850</v>
+        <v>20367.599999999999</v>
       </c>
       <c r="AB5" s="4">
-        <v>20900</v>
+        <v>21305.5</v>
       </c>
       <c r="AC5" s="4">
-        <v>22300</v>
+        <v>21966.3</v>
       </c>
       <c r="AD5" s="4">
-        <v>23500</v>
+        <v>23438</v>
       </c>
       <c r="AE5" s="4">
-        <v>25000</v>
+        <v>24858.2</v>
       </c>
       <c r="AF5" s="4">
-        <v>25850</v>
+        <v>26938.7</v>
       </c>
       <c r="AG5" s="4">
-        <v>28450</v>
+        <v>28407.3</v>
       </c>
       <c r="AH5" s="4">
-        <v>30150</v>
+        <v>29840.1</v>
       </c>
       <c r="AI5" s="4">
-        <v>31100</v>
+        <v>31011.4</v>
       </c>
       <c r="AJ5" s="4">
-        <v>33050</v>
+        <v>32957.9</v>
       </c>
       <c r="AK5" s="4">
-        <v>34650</v>
+        <v>34138</v>
       </c>
       <c r="AL5" s="4">
-        <v>36150</v>
+        <v>35607.699999999997</v>
       </c>
       <c r="AM5" s="4">
-        <v>37000</v>
+        <v>37365.1</v>
       </c>
       <c r="AN5" s="4">
-        <v>39700</v>
+        <v>38826.6</v>
       </c>
       <c r="AO5" s="4">
-        <v>40800</v>
+        <v>40871.599999999999</v>
       </c>
       <c r="AP5" s="4">
-        <v>41800</v>
+        <v>42397.4</v>
       </c>
       <c r="AQ5" s="4">
-        <v>44000</v>
+        <v>46694.7</v>
       </c>
       <c r="AR5" s="4">
-        <v>46300</v>
+        <v>46098.8</v>
       </c>
       <c r="AS5" s="4">
-        <v>52900</v>
+        <v>48782</v>
       </c>
       <c r="AT5" s="4">
-        <v>50650</v>
+        <v>50023.9</v>
       </c>
       <c r="AU5" s="4">
-        <v>50950</v>
+        <v>51804.6</v>
       </c>
       <c r="AV5" s="4">
-        <v>55950</v>
+        <v>53814</v>
       </c>
       <c r="AW5" s="4">
-        <v>57650</v>
+        <v>56239.7</v>
       </c>
       <c r="AX5" s="4">
-        <v>59050</v>
+        <v>57528.7</v>
       </c>
       <c r="AY5" s="4">
-        <v>62300</v>
+        <v>59085.4</v>
       </c>
       <c r="AZ5" s="4">
-        <v>64300</v>
+        <v>62823.7</v>
       </c>
       <c r="BA5" s="4">
-        <v>63200</v>
+        <v>64501.4</v>
       </c>
       <c r="BB5" s="4">
-        <v>66950</v>
+        <v>66908.399999999994</v>
       </c>
       <c r="BC5" s="4">
-        <v>67700</v>
+        <v>69993.8</v>
       </c>
       <c r="BD5" s="4">
-        <v>71350</v>
+        <v>70852.7</v>
       </c>
       <c r="BE5" s="4">
-        <v>74000</v>
+        <v>73915.3</v>
       </c>
       <c r="BF5" s="4">
-        <v>74450</v>
+        <v>76449.399999999994</v>
       </c>
       <c r="BG5" s="4">
-        <v>78900</v>
+        <v>77721.399999999994</v>
       </c>
       <c r="BH5" s="4">
-        <v>79700</v>
+        <v>80184.7</v>
       </c>
       <c r="BI5" s="4">
-        <v>83500</v>
+        <v>81320.600000000006</v>
       </c>
       <c r="BJ5" s="4">
-        <v>86450</v>
+        <v>85779.6</v>
       </c>
       <c r="BK5" s="4">
-        <v>85800</v>
+        <v>86913.5</v>
       </c>
       <c r="BL5" s="4">
-        <v>94200</v>
+        <v>88443.8</v>
       </c>
       <c r="BM5" s="4">
-        <v>91350</v>
+        <v>92756.6</v>
       </c>
       <c r="BN5" s="4">
-        <v>96550</v>
+        <v>93856.8</v>
       </c>
       <c r="BO5" s="4">
-        <v>97650</v>
+        <v>97268.800000000003</v>
       </c>
       <c r="BP5" s="4">
-        <v>102800</v>
+        <v>99398.2</v>
       </c>
       <c r="BQ5" s="4">
-        <v>103650</v>
+        <v>102782.1</v>
       </c>
       <c r="BR5" s="4">
-        <v>103550</v>
+        <v>105859.4</v>
       </c>
       <c r="BS5" s="4">
-        <v>114300</v>
+        <v>110112.8</v>
       </c>
       <c r="BT5" s="4">
-        <v>113000</v>
+        <v>111199.2</v>
       </c>
       <c r="BU5" s="4">
-        <v>119250</v>
+        <v>113886.3</v>
       </c>
       <c r="BV5" s="4">
-        <v>121500</v>
+        <v>115520.4</v>
       </c>
       <c r="BW5" s="4">
-        <v>123650</v>
+        <v>119104.7</v>
       </c>
       <c r="BX5" s="4">
-        <v>123000</v>
+        <v>121574.1</v>
       </c>
       <c r="BY5" s="4">
-        <v>124000</v>
+        <v>123071.1</v>
       </c>
       <c r="BZ5" s="4">
-        <v>130500</v>
+        <v>127539.8</v>
       </c>
       <c r="CA5" s="4">
-        <v>131000</v>
+        <v>131913.60000000001</v>
       </c>
       <c r="CB5" s="4">
-        <v>136250</v>
+        <v>134469.4</v>
       </c>
       <c r="CC5" s="4">
-        <v>145150</v>
+        <v>137169</v>
       </c>
       <c r="CD5" s="4">
-        <v>145900</v>
+        <v>139637.6</v>
       </c>
       <c r="CE5" s="4">
-        <v>146300</v>
+        <v>144330.29999999999</v>
       </c>
       <c r="CF5" s="4">
-        <v>143400</v>
+        <v>147089.1</v>
       </c>
       <c r="CG5" s="4">
-        <v>150950</v>
+        <v>149741.20000000001</v>
       </c>
       <c r="CH5" s="4">
-        <v>153600</v>
+        <v>153754.1</v>
       </c>
       <c r="CI5" s="4">
-        <v>154900</v>
+        <v>155548.20000000001</v>
       </c>
       <c r="CJ5" s="4">
-        <v>162500</v>
+        <v>159510.29999999999</v>
       </c>
       <c r="CK5" s="4">
-        <v>165250</v>
+        <v>162878.6</v>
       </c>
       <c r="CL5" s="4">
-        <v>172150</v>
+        <v>165449.79999999999</v>
       </c>
       <c r="CM5" s="4">
-        <v>170000</v>
+        <v>167791.2</v>
       </c>
       <c r="CN5" s="4">
-        <v>183100</v>
+        <v>170604.5</v>
       </c>
       <c r="CO5" s="4">
-        <v>192450</v>
+        <v>176889.7</v>
       </c>
       <c r="CP5" s="4">
-        <v>183500</v>
+        <v>192881.3</v>
       </c>
       <c r="CQ5" s="4">
-        <v>188700</v>
+        <v>196231.6</v>
       </c>
       <c r="CR5" s="4">
-        <v>201900</v>
+        <v>186931.1</v>
       </c>
       <c r="CS5" s="4">
-        <v>193500</v>
+        <v>189497.5</v>
       </c>
       <c r="CT5" s="4">
-        <v>194200</v>
+        <v>194842.9</v>
       </c>
       <c r="CU5" s="4">
-        <v>249950</v>
+        <v>197270.9</v>
       </c>
       <c r="CV5" s="4">
-        <v>198500</v>
-      </c>
-      <c r="CW5" s="4">
-        <v>204800</v>
+        <v>198436.3</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>39.1</v>
       </c>
       <c r="B6" s="5">
-        <v>50</v>
+        <v>67.5</v>
       </c>
       <c r="C6" s="5">
-        <v>200</v>
+        <v>127.1</v>
       </c>
       <c r="D6" s="5">
-        <v>250</v>
+        <v>195.5</v>
       </c>
       <c r="E6" s="5">
-        <v>400</v>
+        <v>274.60000000000002</v>
       </c>
       <c r="F6" s="5">
-        <v>350</v>
+        <v>337.7</v>
       </c>
       <c r="G6" s="5">
-        <v>600</v>
+        <v>412.5</v>
       </c>
       <c r="H6" s="5">
-        <v>750</v>
+        <v>629.70000000000005</v>
       </c>
       <c r="I6" s="5">
-        <v>900</v>
+        <v>776.6</v>
       </c>
       <c r="J6" s="5">
-        <v>1150</v>
+        <v>828.7</v>
       </c>
       <c r="K6" s="5">
-        <v>1400</v>
+        <v>1110.8</v>
       </c>
       <c r="L6" s="5">
-        <v>1700</v>
+        <v>1278.8</v>
       </c>
       <c r="M6" s="5">
-        <v>1850</v>
+        <v>1511.3</v>
       </c>
       <c r="N6" s="5">
-        <v>1950</v>
+        <v>1822</v>
       </c>
       <c r="O6" s="5">
-        <v>2250</v>
+        <v>1959.7</v>
       </c>
       <c r="P6" s="5">
-        <v>2600</v>
+        <v>2290.1</v>
       </c>
       <c r="Q6" s="5">
-        <v>3050</v>
+        <v>2626.1</v>
       </c>
       <c r="R6" s="5">
-        <v>2950</v>
+        <v>2995</v>
       </c>
       <c r="S6" s="5">
-        <v>3600</v>
+        <v>2790.2</v>
       </c>
       <c r="T6" s="5">
-        <v>3650</v>
+        <v>3509.3</v>
       </c>
       <c r="U6" s="5">
-        <v>4100</v>
+        <v>3438.2</v>
       </c>
       <c r="V6" s="5">
-        <v>4200</v>
+        <v>3973.3</v>
       </c>
       <c r="W6" s="5">
-        <v>4900</v>
+        <v>4483.3999999999996</v>
       </c>
       <c r="X6" s="5">
-        <v>5150</v>
+        <v>4774.3999999999996</v>
       </c>
       <c r="Y6" s="5">
-        <v>5700</v>
+        <v>5563.6</v>
       </c>
       <c r="Z6" s="5">
-        <v>6050</v>
+        <v>5790</v>
       </c>
       <c r="AA6" s="5">
-        <v>6250</v>
+        <v>5972.5</v>
       </c>
       <c r="AB6" s="5">
-        <v>7550</v>
+        <v>6645.7</v>
       </c>
       <c r="AC6" s="5">
-        <v>8200</v>
+        <v>7276.5</v>
       </c>
       <c r="AD6" s="5">
-        <v>7700</v>
+        <v>6967.6</v>
       </c>
       <c r="AE6" s="5">
-        <v>8050</v>
+        <v>7747.4</v>
       </c>
       <c r="AF6" s="5">
-        <v>8600</v>
+        <v>8284</v>
       </c>
       <c r="AG6" s="5">
-        <v>9300</v>
+        <v>9472.5</v>
       </c>
       <c r="AH6" s="5">
-        <v>10750</v>
+        <v>9711</v>
       </c>
       <c r="AI6" s="5">
-        <v>10200</v>
+        <v>10059.700000000001</v>
       </c>
       <c r="AJ6" s="5">
-        <v>10750</v>
+        <v>10554.3</v>
       </c>
       <c r="AK6" s="5">
-        <v>11150</v>
+        <v>10995.5</v>
       </c>
       <c r="AL6" s="5">
-        <v>12150</v>
+        <v>11384.5</v>
       </c>
       <c r="AM6" s="5">
-        <v>11750</v>
+        <v>12101.8</v>
       </c>
       <c r="AN6" s="5">
-        <v>13450</v>
+        <v>12323.5</v>
       </c>
       <c r="AO6" s="5">
-        <v>14050</v>
+        <v>12838.7</v>
       </c>
       <c r="AP6" s="5">
-        <v>14250</v>
+        <v>12944.3</v>
       </c>
       <c r="AQ6" s="5">
-        <v>14700</v>
+        <v>15060.7</v>
       </c>
       <c r="AR6" s="5">
-        <v>15500</v>
+        <v>15773.2</v>
       </c>
       <c r="AS6" s="5">
-        <v>16050</v>
+        <v>15695.3</v>
       </c>
       <c r="AT6" s="5">
-        <v>16450</v>
+        <v>16250.2</v>
       </c>
       <c r="AU6" s="5">
-        <v>15750</v>
+        <v>16104.1</v>
       </c>
       <c r="AV6" s="5">
-        <v>17550</v>
+        <v>17015.8</v>
       </c>
       <c r="AW6" s="5">
-        <v>18200</v>
+        <v>18413.2</v>
       </c>
       <c r="AX6" s="5">
-        <v>20800</v>
+        <v>18733.5</v>
       </c>
       <c r="AY6" s="5">
-        <v>21850</v>
+        <v>20401.599999999999</v>
       </c>
       <c r="AZ6" s="5">
-        <v>20650</v>
+        <v>19197</v>
       </c>
       <c r="BA6" s="5">
-        <v>19750</v>
+        <v>21070.7</v>
       </c>
       <c r="BB6" s="5">
-        <v>21900</v>
+        <v>21599.9</v>
       </c>
       <c r="BC6" s="5">
-        <v>22550</v>
+        <v>22862.9</v>
       </c>
       <c r="BD6" s="5">
-        <v>24200</v>
+        <v>23524.5</v>
       </c>
       <c r="BE6" s="5">
-        <v>25550</v>
+        <v>23419.4</v>
       </c>
       <c r="BF6" s="5">
-        <v>25750</v>
+        <v>24221.1</v>
       </c>
       <c r="BG6" s="5">
-        <v>25400</v>
+        <v>25765</v>
       </c>
       <c r="BH6" s="5">
-        <v>34750</v>
+        <v>26935.7</v>
       </c>
       <c r="BI6" s="5">
-        <v>28400</v>
+        <v>26068.1</v>
       </c>
       <c r="BJ6" s="5">
-        <v>29050</v>
+        <v>27542.6</v>
       </c>
       <c r="BK6" s="5">
-        <v>30250</v>
+        <v>28346.3</v>
       </c>
       <c r="BL6" s="5">
-        <v>30350</v>
+        <v>28587.5</v>
       </c>
       <c r="BM6" s="5">
-        <v>31150</v>
+        <v>29940.5</v>
       </c>
       <c r="BN6" s="5">
-        <v>33050</v>
+        <v>30877.8</v>
       </c>
       <c r="BO6" s="5">
-        <v>35300</v>
+        <v>32525.9</v>
       </c>
       <c r="BP6" s="5">
-        <v>34900</v>
+        <v>33246.199999999997</v>
       </c>
       <c r="BQ6" s="5">
-        <v>33900</v>
+        <v>34909.800000000003</v>
       </c>
       <c r="BR6" s="5">
-        <v>36800</v>
+        <v>34046</v>
       </c>
       <c r="BS6" s="5">
-        <v>38600</v>
+        <v>36347.1</v>
       </c>
       <c r="BT6" s="5">
-        <v>40400</v>
+        <v>35938.1</v>
       </c>
       <c r="BU6" s="5">
-        <v>38500</v>
+        <v>39378.800000000003</v>
       </c>
       <c r="BV6" s="5">
-        <v>40750</v>
+        <v>39191.1</v>
       </c>
       <c r="BW6" s="5">
-        <v>40100</v>
+        <v>40755.4</v>
       </c>
       <c r="BX6" s="5">
-        <v>41650</v>
+        <v>39069.699999999997</v>
       </c>
       <c r="BY6" s="5">
-        <v>42950</v>
+        <v>41633.4</v>
       </c>
       <c r="BZ6" s="5">
-        <v>42600</v>
+        <v>41177</v>
       </c>
       <c r="CA6" s="5">
-        <v>43650</v>
+        <v>47517.1</v>
       </c>
       <c r="CB6" s="5">
-        <v>45000</v>
+        <v>67098.5</v>
       </c>
       <c r="CC6" s="5">
-        <v>48200</v>
+        <v>45795.199999999997</v>
       </c>
       <c r="CD6" s="5">
-        <v>47000</v>
+        <v>45607.8</v>
       </c>
       <c r="CE6" s="5">
-        <v>49900</v>
+        <v>49309.9</v>
       </c>
       <c r="CF6" s="5">
-        <v>52750</v>
+        <v>51114.400000000001</v>
       </c>
       <c r="CG6" s="5">
-        <v>53900</v>
+        <v>49400.3</v>
       </c>
       <c r="CH6" s="5">
-        <v>57900</v>
+        <v>49178.9</v>
       </c>
       <c r="CI6" s="5">
-        <v>54750</v>
+        <v>52812.800000000003</v>
       </c>
       <c r="CJ6" s="5">
-        <v>55850</v>
+        <v>55125.4</v>
       </c>
       <c r="CK6" s="5">
-        <v>56850</v>
+        <v>55290.2</v>
       </c>
       <c r="CL6" s="5">
-        <v>55650</v>
+        <v>55856.7</v>
       </c>
       <c r="CM6" s="5">
-        <v>55850</v>
+        <v>55682</v>
       </c>
       <c r="CN6" s="5">
-        <v>61000</v>
+        <v>56188.2</v>
       </c>
       <c r="CO6" s="5">
-        <v>58700</v>
+        <v>61858.8</v>
       </c>
       <c r="CP6" s="5">
-        <v>61550</v>
+        <v>61462.8</v>
       </c>
       <c r="CQ6" s="5">
-        <v>65350</v>
+        <v>60737.2</v>
       </c>
       <c r="CR6" s="5">
-        <v>64400</v>
+        <v>62048</v>
       </c>
       <c r="CS6" s="5">
-        <v>63450</v>
+        <v>63623</v>
       </c>
       <c r="CT6" s="5">
-        <v>81750</v>
+        <v>63845.3</v>
       </c>
       <c r="CU6" s="5">
-        <v>70000</v>
+        <v>65798.399999999994</v>
       </c>
       <c r="CV6" s="5">
-        <v>67900</v>
-      </c>
-      <c r="CW6" s="5">
-        <v>70850</v>
+        <v>68675.100000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>61.3</v>
       </c>
       <c r="B7" s="6">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="C7" s="6">
-        <v>450</v>
+        <v>203.4</v>
       </c>
       <c r="D7" s="6">
-        <v>700</v>
+        <v>292.7</v>
       </c>
       <c r="E7" s="6">
-        <v>900</v>
+        <v>350.4</v>
       </c>
       <c r="F7" s="6">
-        <v>1150</v>
+        <v>449.2</v>
       </c>
       <c r="G7" s="6">
-        <v>1350</v>
+        <v>522</v>
       </c>
       <c r="H7" s="6">
-        <v>1500</v>
+        <v>651.79999999999995</v>
       </c>
       <c r="I7" s="6">
-        <v>1700</v>
+        <v>745.7</v>
       </c>
       <c r="J7" s="6">
-        <v>2050</v>
+        <v>822.7</v>
       </c>
       <c r="K7" s="6">
-        <v>2200</v>
+        <v>946.7</v>
       </c>
       <c r="L7" s="6">
-        <v>2350</v>
+        <v>1037.4000000000001</v>
       </c>
       <c r="M7" s="6">
-        <v>2700</v>
+        <v>1133.2</v>
       </c>
       <c r="N7" s="6">
-        <v>3050</v>
+        <v>1216.8</v>
       </c>
       <c r="O7" s="6">
-        <v>3200</v>
+        <v>1319.1</v>
       </c>
       <c r="P7" s="6">
-        <v>3350</v>
+        <v>1454.9</v>
       </c>
       <c r="Q7" s="6">
-        <v>3550</v>
+        <v>1693</v>
       </c>
       <c r="R7" s="6">
-        <v>3750</v>
+        <v>1654.6</v>
       </c>
       <c r="S7" s="6">
-        <v>4150</v>
+        <v>1748.5</v>
       </c>
       <c r="T7" s="6">
-        <v>4400</v>
+        <v>1880.4</v>
       </c>
       <c r="U7" s="6">
-        <v>4700</v>
+        <v>1999.5</v>
       </c>
       <c r="V7" s="6">
-        <v>5200</v>
+        <v>2117.9</v>
       </c>
       <c r="W7" s="6">
-        <v>5550</v>
+        <v>2258.6</v>
       </c>
       <c r="X7" s="6">
-        <v>5750</v>
+        <v>2345.3000000000002</v>
       </c>
       <c r="Y7" s="6">
-        <v>5500</v>
+        <v>2430.6</v>
       </c>
       <c r="Z7" s="6">
-        <v>5850</v>
+        <v>2578.8000000000002</v>
       </c>
       <c r="AA7" s="6">
-        <v>6600</v>
+        <v>2661.4</v>
       </c>
       <c r="AB7" s="6">
-        <v>6350</v>
+        <v>2741.1</v>
       </c>
       <c r="AC7" s="6">
-        <v>6800</v>
+        <v>2904.1</v>
       </c>
       <c r="AD7" s="6">
-        <v>7000</v>
+        <v>3029</v>
       </c>
       <c r="AE7" s="6">
-        <v>7050</v>
+        <v>3089.2</v>
       </c>
       <c r="AF7" s="6">
-        <v>7450</v>
+        <v>3226.1</v>
       </c>
       <c r="AG7" s="6">
-        <v>7850</v>
+        <v>3378</v>
       </c>
       <c r="AH7" s="6">
-        <v>7850</v>
+        <v>3567</v>
       </c>
       <c r="AI7" s="6">
-        <v>8250</v>
+        <v>4066.4</v>
       </c>
       <c r="AJ7" s="6">
-        <v>8400</v>
+        <v>3679.5</v>
       </c>
       <c r="AK7" s="6">
-        <v>9200</v>
+        <v>3867.4</v>
       </c>
       <c r="AL7" s="6">
-        <v>9100</v>
+        <v>3957.5</v>
       </c>
       <c r="AM7" s="6">
-        <v>9450</v>
+        <v>4086.8</v>
       </c>
       <c r="AN7" s="6">
-        <v>9750</v>
+        <v>4328.8999999999996</v>
       </c>
       <c r="AO7" s="6">
-        <v>9950</v>
+        <v>4309.7</v>
       </c>
       <c r="AP7" s="6">
-        <v>10850</v>
+        <v>4433.8</v>
       </c>
       <c r="AQ7" s="6">
-        <v>10900</v>
+        <v>4669.6000000000004</v>
       </c>
       <c r="AR7" s="6">
-        <v>10950</v>
+        <v>4647.8</v>
       </c>
       <c r="AS7" s="6">
-        <v>11750</v>
+        <v>4816.7</v>
       </c>
       <c r="AT7" s="6">
-        <v>11450</v>
+        <v>4912.6000000000004</v>
       </c>
       <c r="AU7" s="6">
-        <v>13000</v>
+        <v>5039.3999999999996</v>
       </c>
       <c r="AV7" s="6">
-        <v>12050</v>
+        <v>5209</v>
       </c>
       <c r="AW7" s="6">
-        <v>12250</v>
+        <v>5311.2</v>
       </c>
       <c r="AX7" s="6">
-        <v>12400</v>
+        <v>5602.4</v>
       </c>
       <c r="AY7" s="6">
-        <v>13150</v>
+        <v>5567.8</v>
       </c>
       <c r="AZ7" s="6">
-        <v>13750</v>
+        <v>5749.8</v>
       </c>
       <c r="BA7" s="6">
-        <v>15750</v>
+        <v>5777.1</v>
       </c>
       <c r="BB7" s="6">
-        <v>14050</v>
+        <v>5796.9</v>
       </c>
       <c r="BC7" s="6">
-        <v>14700</v>
+        <v>5978</v>
       </c>
       <c r="BD7" s="6">
-        <v>14550</v>
+        <v>6185.7</v>
       </c>
       <c r="BE7" s="6">
-        <v>14650</v>
+        <v>6277.7</v>
       </c>
       <c r="BF7" s="6">
-        <v>14950</v>
+        <v>6426.8</v>
       </c>
       <c r="BG7" s="6">
-        <v>15150</v>
+        <v>6543.4</v>
       </c>
       <c r="BH7" s="6">
-        <v>15650</v>
+        <v>6833.6</v>
       </c>
       <c r="BI7" s="6">
-        <v>16150</v>
+        <v>6788.3</v>
       </c>
       <c r="BJ7" s="6">
-        <v>16300</v>
+        <v>6935.4</v>
       </c>
       <c r="BK7" s="6">
-        <v>16600</v>
+        <v>7051.5</v>
       </c>
       <c r="BL7" s="6">
-        <v>16650</v>
+        <v>7271.3</v>
       </c>
       <c r="BM7" s="6">
-        <v>17250</v>
+        <v>7405.3</v>
       </c>
       <c r="BN7" s="6">
-        <v>17200</v>
+        <v>7562.9</v>
       </c>
       <c r="BO7" s="6">
-        <v>17450</v>
+        <v>7644.2</v>
       </c>
       <c r="BP7" s="6">
-        <v>18100</v>
+        <v>7789.5</v>
       </c>
       <c r="BQ7" s="6">
-        <v>19050</v>
+        <v>7971.5</v>
       </c>
       <c r="BR7" s="6">
-        <v>18700</v>
+        <v>8251.7000000000007</v>
       </c>
       <c r="BS7" s="6">
-        <v>18850</v>
+        <v>8123.8</v>
       </c>
       <c r="BT7" s="6">
-        <v>19500</v>
+        <v>8303.2999999999993</v>
       </c>
       <c r="BU7" s="6">
-        <v>19700</v>
+        <v>8589</v>
       </c>
       <c r="BV7" s="6">
-        <v>20550</v>
+        <v>8722</v>
       </c>
       <c r="BW7" s="6">
-        <v>20200</v>
+        <v>9186.9</v>
       </c>
       <c r="BX7" s="6">
-        <v>21250</v>
+        <v>8761</v>
       </c>
       <c r="BY7" s="6">
-        <v>21000</v>
+        <v>9526.2000000000007</v>
       </c>
       <c r="BZ7" s="6">
-        <v>21350</v>
+        <v>9286.7000000000007</v>
       </c>
       <c r="CA7" s="6">
-        <v>20900</v>
+        <v>9304.4</v>
       </c>
       <c r="CB7" s="6">
-        <v>21950</v>
+        <v>9591.5</v>
       </c>
       <c r="CC7" s="6">
-        <v>22050</v>
+        <v>9488.4</v>
       </c>
       <c r="CD7" s="6">
-        <v>23100</v>
+        <v>9572.5</v>
       </c>
       <c r="CE7" s="6">
-        <v>23900</v>
+        <v>9867.7999999999993</v>
       </c>
       <c r="CF7" s="6">
-        <v>23000</v>
+        <v>10477.799999999999</v>
       </c>
       <c r="CG7" s="6">
-        <v>23200</v>
+        <v>10034.6</v>
       </c>
       <c r="CH7" s="6">
-        <v>23050</v>
+        <v>10488.3</v>
       </c>
       <c r="CI7" s="6">
-        <v>25400</v>
+        <v>10354.200000000001</v>
       </c>
       <c r="CJ7" s="6">
-        <v>26550</v>
+        <v>10698.5</v>
       </c>
       <c r="CK7" s="6">
-        <v>24550</v>
+        <v>11047.8</v>
       </c>
       <c r="CL7" s="6">
-        <v>25150</v>
+        <v>11452.2</v>
       </c>
       <c r="CM7" s="6">
-        <v>25050</v>
+        <v>11180.1</v>
       </c>
       <c r="CN7" s="6">
-        <v>26450</v>
+        <v>11144.8</v>
       </c>
       <c r="CO7" s="6">
-        <v>26250</v>
+        <v>11400.3</v>
       </c>
       <c r="CP7" s="6">
-        <v>25950</v>
+        <v>11495.3</v>
       </c>
       <c r="CQ7" s="6">
-        <v>26700</v>
+        <v>11803.2</v>
       </c>
       <c r="CR7" s="6">
-        <v>28150</v>
+        <v>11986.7</v>
       </c>
       <c r="CS7" s="6">
-        <v>27200</v>
+        <v>12135</v>
       </c>
       <c r="CT7" s="6">
-        <v>27450</v>
+        <v>12668.1</v>
       </c>
       <c r="CU7" s="6">
-        <v>28800</v>
-      </c>
-      <c r="CV7" s="6">
-        <v>31300</v>
-      </c>
-      <c r="CW7">
-        <v>15950</v>
+        <v>13370.2</v>
+      </c>
+      <c r="CV7">
+        <v>15415.6</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>37.1</v>
       </c>
       <c r="B8" s="7">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="C8" s="7">
-        <v>250</v>
+        <v>156.6</v>
       </c>
       <c r="D8" s="7">
-        <v>350</v>
+        <v>189.7</v>
       </c>
       <c r="E8" s="7">
-        <v>500</v>
+        <v>256.89999999999998</v>
       </c>
       <c r="F8" s="7">
-        <v>650</v>
+        <v>311.8</v>
       </c>
       <c r="G8" s="7">
-        <v>700</v>
+        <v>414.2</v>
       </c>
       <c r="H8" s="7">
-        <v>900</v>
+        <v>495.8</v>
       </c>
       <c r="I8" s="7">
-        <v>1050</v>
+        <v>519.70000000000005</v>
       </c>
       <c r="J8" s="7">
-        <v>1150</v>
+        <v>669.1</v>
       </c>
       <c r="K8" s="7">
-        <v>1300</v>
+        <v>742.4</v>
       </c>
       <c r="L8" s="7">
-        <v>1550</v>
+        <v>899.6</v>
       </c>
       <c r="M8" s="7">
-        <v>2000</v>
+        <v>822</v>
       </c>
       <c r="N8" s="7">
-        <v>1850</v>
+        <v>800.9</v>
       </c>
       <c r="O8" s="7">
-        <v>2300</v>
+        <v>943.3</v>
       </c>
       <c r="P8" s="7">
-        <v>2150</v>
+        <v>1088.5999999999999</v>
       </c>
       <c r="Q8" s="7">
-        <v>2450</v>
+        <v>1137.4000000000001</v>
       </c>
       <c r="R8" s="7">
-        <v>2650</v>
+        <v>1160.2</v>
       </c>
       <c r="S8" s="7">
-        <v>2700</v>
+        <v>1259.5</v>
       </c>
       <c r="T8" s="7">
-        <v>2700</v>
+        <v>1255.2</v>
       </c>
       <c r="U8" s="7">
-        <v>3000</v>
+        <v>1548</v>
       </c>
       <c r="V8" s="7">
-        <v>3200</v>
+        <v>1407.3</v>
       </c>
       <c r="W8" s="7">
-        <v>3300</v>
+        <v>1557.9</v>
       </c>
       <c r="X8" s="7">
-        <v>3800</v>
+        <v>1519.3</v>
       </c>
       <c r="Y8" s="7">
-        <v>3700</v>
+        <v>1647.3</v>
       </c>
       <c r="Z8" s="7">
-        <v>4050</v>
+        <v>1824.7</v>
       </c>
       <c r="AA8" s="7">
-        <v>3950</v>
+        <v>1828.3</v>
       </c>
       <c r="AB8" s="7">
-        <v>4450</v>
+        <v>1878.8</v>
       </c>
       <c r="AC8" s="7">
-        <v>4850</v>
+        <v>2089.1999999999998</v>
       </c>
       <c r="AD8" s="7">
-        <v>5150</v>
+        <v>2108.3000000000002</v>
       </c>
       <c r="AE8" s="7">
-        <v>5050</v>
+        <v>2177.6999999999998</v>
       </c>
       <c r="AF8" s="7">
-        <v>5150</v>
+        <v>2241.8000000000002</v>
       </c>
       <c r="AG8" s="7">
-        <v>5450</v>
+        <v>2411.4</v>
       </c>
       <c r="AH8" s="7">
-        <v>5300</v>
+        <v>2397.9</v>
       </c>
       <c r="AI8" s="7">
-        <v>5700</v>
+        <v>2488.9</v>
       </c>
       <c r="AJ8" s="7">
-        <v>5900</v>
+        <v>2546.9</v>
       </c>
       <c r="AK8" s="7">
-        <v>6050</v>
+        <v>2804.7</v>
       </c>
       <c r="AL8" s="7">
-        <v>6350</v>
+        <v>2668.9</v>
       </c>
       <c r="AM8" s="7">
-        <v>6400</v>
+        <v>2932.3</v>
       </c>
       <c r="AN8" s="7">
-        <v>6450</v>
+        <v>2964.4</v>
       </c>
       <c r="AO8" s="7">
-        <v>6800</v>
+        <v>3288.7</v>
       </c>
       <c r="AP8" s="7">
-        <v>7400</v>
+        <v>3036.9</v>
       </c>
       <c r="AQ8" s="7">
-        <v>7350</v>
+        <v>3235.9</v>
       </c>
       <c r="AR8" s="7">
-        <v>8100</v>
+        <v>3575.1</v>
       </c>
       <c r="AS8" s="7">
-        <v>7600</v>
+        <v>3366.8</v>
       </c>
       <c r="AT8" s="7">
-        <v>7550</v>
+        <v>3967.3</v>
       </c>
       <c r="AU8" s="7">
-        <v>7850</v>
+        <v>3875.1</v>
       </c>
       <c r="AV8" s="7">
-        <v>8500</v>
+        <v>3672</v>
       </c>
       <c r="AW8" s="7">
-        <v>8600</v>
+        <v>3873.2</v>
       </c>
       <c r="AX8" s="7">
-        <v>8700</v>
+        <v>3747.5</v>
       </c>
       <c r="AY8" s="7">
-        <v>8650</v>
+        <v>3973</v>
       </c>
       <c r="AZ8" s="7">
-        <v>9500</v>
+        <v>4615</v>
       </c>
       <c r="BA8" s="7">
-        <v>9100</v>
+        <v>3999.4</v>
       </c>
       <c r="BB8" s="7">
-        <v>9200</v>
+        <v>4243.6000000000004</v>
       </c>
       <c r="BC8" s="7">
-        <v>9450</v>
+        <v>4311.3999999999996</v>
       </c>
       <c r="BD8" s="7">
-        <v>9850</v>
+        <v>4630.7</v>
       </c>
       <c r="BE8" s="7">
-        <v>9850</v>
+        <v>4783</v>
       </c>
       <c r="BF8" s="7">
-        <v>10100</v>
+        <v>4848.3999999999996</v>
       </c>
       <c r="BG8" s="7">
-        <v>10350</v>
+        <v>4757.3</v>
       </c>
       <c r="BH8" s="7">
-        <v>10600</v>
+        <v>4604.1000000000004</v>
       </c>
       <c r="BI8" s="7">
-        <v>10600</v>
+        <v>5419.2</v>
       </c>
       <c r="BJ8" s="7">
-        <v>10850</v>
+        <v>5241.6000000000004</v>
       </c>
       <c r="BK8" s="7">
-        <v>11000</v>
+        <v>5043.1000000000004</v>
       </c>
       <c r="BL8" s="7">
-        <v>11150</v>
+        <v>5216.8999999999996</v>
       </c>
       <c r="BM8" s="7">
-        <v>11400</v>
+        <v>5843.7</v>
       </c>
       <c r="BN8" s="7">
-        <v>11550</v>
+        <v>5242.3999999999996</v>
       </c>
       <c r="BO8" s="7">
-        <v>12050</v>
+        <v>5510.5</v>
       </c>
       <c r="BP8" s="7">
-        <v>12100</v>
+        <v>5695.7</v>
       </c>
       <c r="BQ8" s="7">
-        <v>12600</v>
+        <v>5444.5</v>
       </c>
       <c r="BR8" s="7">
-        <v>12600</v>
+        <v>5671.5</v>
       </c>
       <c r="BS8" s="7">
-        <v>12650</v>
+        <v>6189.9</v>
       </c>
       <c r="BT8" s="7">
-        <v>13100</v>
+        <v>5890</v>
       </c>
       <c r="BU8" s="7">
-        <v>12800</v>
+        <v>6523</v>
       </c>
       <c r="BV8" s="7">
-        <v>13300</v>
+        <v>5927.6</v>
       </c>
       <c r="BW8" s="7">
-        <v>13250</v>
+        <v>6669.8</v>
       </c>
       <c r="BX8" s="7">
-        <v>13500</v>
+        <v>6311.8</v>
       </c>
       <c r="BY8" s="7">
-        <v>13800</v>
+        <v>6938.7</v>
       </c>
       <c r="BZ8" s="7">
-        <v>14650</v>
+        <v>6694.4</v>
       </c>
       <c r="CA8" s="7">
-        <v>14400</v>
+        <v>7129.7</v>
       </c>
       <c r="CB8" s="7">
-        <v>14700</v>
+        <v>7596.7</v>
       </c>
       <c r="CC8" s="7">
-        <v>14950</v>
+        <v>7168.8</v>
       </c>
       <c r="CD8" s="7">
-        <v>15550</v>
+        <v>7567.1</v>
       </c>
       <c r="CE8" s="7">
-        <v>17050</v>
+        <v>8391.5</v>
       </c>
       <c r="CF8" s="7">
-        <v>18850</v>
+        <v>8329.5</v>
       </c>
       <c r="CG8" s="7">
-        <v>15500</v>
+        <v>9102.2000000000007</v>
       </c>
       <c r="CH8" s="7">
-        <v>16250</v>
+        <v>8741.7000000000007</v>
       </c>
       <c r="CI8" s="7">
-        <v>18400</v>
+        <v>9574.5</v>
       </c>
       <c r="CJ8" s="7">
-        <v>16800</v>
+        <v>9967.9</v>
       </c>
       <c r="CK8" s="7">
-        <v>18450</v>
+        <v>8040.1</v>
       </c>
       <c r="CL8" s="7">
-        <v>19200</v>
+        <v>8741</v>
       </c>
       <c r="CM8" s="7">
-        <v>17600</v>
+        <v>9359.9</v>
       </c>
       <c r="CN8" s="7">
-        <v>17900</v>
+        <v>11187.4</v>
       </c>
       <c r="CO8" s="7">
-        <v>21000</v>
+        <v>10912.2</v>
       </c>
       <c r="CP8" s="7">
-        <v>18650</v>
+        <v>10050.299999999999</v>
       </c>
       <c r="CQ8" s="7">
-        <v>19150</v>
+        <v>10456.9</v>
       </c>
       <c r="CR8" s="7">
-        <v>20400</v>
+        <v>11356.9</v>
       </c>
       <c r="CS8" s="7">
-        <v>19200</v>
+        <v>11970.5</v>
       </c>
       <c r="CT8" s="7">
-        <v>20500</v>
+        <v>14191.7</v>
       </c>
       <c r="CU8" s="7">
-        <v>20300</v>
+        <v>13428</v>
       </c>
       <c r="CV8" s="7">
-        <v>27000</v>
-      </c>
-      <c r="CW8" s="7">
-        <v>22650</v>
+        <v>12546.5</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>699.1</v>
       </c>
       <c r="B9" s="8">
-        <v>1000</v>
+        <v>1574</v>
       </c>
       <c r="C9" s="8">
-        <v>1300</v>
+        <v>2391.9</v>
       </c>
       <c r="D9" s="8">
-        <v>2650</v>
+        <v>3234.4</v>
       </c>
       <c r="E9" s="8">
-        <v>2550</v>
+        <v>4257.8999999999996</v>
       </c>
       <c r="F9" s="8">
-        <v>3500</v>
+        <v>4973.7</v>
       </c>
       <c r="G9" s="8">
-        <v>4050</v>
+        <v>6282.3</v>
       </c>
       <c r="H9" s="8">
-        <v>5900</v>
+        <v>7223.1</v>
       </c>
       <c r="I9" s="8">
-        <v>5600</v>
+        <v>7871.8</v>
       </c>
       <c r="J9" s="8">
-        <v>14100</v>
+        <v>8855.7000000000007</v>
       </c>
       <c r="K9" s="8">
-        <v>16700</v>
+        <v>9622.9</v>
       </c>
       <c r="L9" s="8">
-        <v>8100</v>
+        <v>10436.4</v>
       </c>
       <c r="M9" s="8">
-        <v>9500</v>
+        <v>11193.4</v>
       </c>
       <c r="N9" s="8">
-        <v>10900</v>
+        <v>12596.3</v>
       </c>
       <c r="O9" s="8">
-        <v>17900</v>
+        <v>13314.7</v>
       </c>
       <c r="P9" s="8">
-        <v>12250</v>
+        <v>14153.7</v>
       </c>
       <c r="Q9" s="8">
-        <v>12750</v>
+        <v>15064.6</v>
       </c>
       <c r="R9" s="8">
-        <v>18450</v>
+        <v>15925</v>
       </c>
       <c r="S9" s="8">
-        <v>19550</v>
+        <v>16436.3</v>
       </c>
       <c r="T9" s="8">
-        <v>29250</v>
+        <v>18230.7</v>
       </c>
       <c r="U9" s="8">
-        <v>15700</v>
+        <v>18366.8</v>
       </c>
       <c r="V9" s="8">
-        <v>20800</v>
+        <v>19344.099999999999</v>
       </c>
       <c r="W9" s="8">
-        <v>16000</v>
+        <v>20430.099999999999</v>
       </c>
       <c r="X9" s="8">
-        <v>16750</v>
+        <v>21128.799999999999</v>
       </c>
       <c r="Y9" s="8">
-        <v>23950</v>
+        <v>22464.2</v>
       </c>
       <c r="Z9" s="8">
-        <v>20300</v>
+        <v>23010.9</v>
       </c>
       <c r="AA9" s="8">
-        <v>28150</v>
+        <v>24199.5</v>
       </c>
       <c r="AB9" s="8">
-        <v>19850</v>
+        <v>25220</v>
       </c>
       <c r="AC9" s="8">
-        <v>21750</v>
+        <v>25692.9</v>
       </c>
       <c r="AD9" s="8">
-        <v>28750</v>
+        <v>26483.8</v>
       </c>
       <c r="AE9" s="8">
-        <v>22650</v>
+        <v>27477.7</v>
       </c>
       <c r="AF9" s="8">
-        <v>47950</v>
+        <v>28438.400000000001</v>
       </c>
       <c r="AG9" s="8">
-        <v>46500</v>
+        <v>29411.9</v>
       </c>
       <c r="AH9" s="8">
-        <v>30700</v>
+        <v>31116.9</v>
       </c>
       <c r="AI9" s="8">
-        <v>45700</v>
+        <v>30976.2</v>
       </c>
       <c r="AJ9" s="8">
-        <v>28450</v>
+        <v>32706</v>
       </c>
       <c r="AK9" s="8">
-        <v>29750</v>
+        <v>33213.4</v>
       </c>
       <c r="AL9" s="8">
-        <v>29050</v>
+        <v>34132.699999999997</v>
       </c>
       <c r="AM9" s="8">
-        <v>36000</v>
+        <v>34690</v>
       </c>
       <c r="AN9" s="8">
-        <v>38150</v>
+        <v>35800.1</v>
       </c>
       <c r="AO9" s="8">
-        <v>37050</v>
+        <v>36568.199999999997</v>
       </c>
       <c r="AP9" s="8">
-        <v>57250</v>
+        <v>37415</v>
       </c>
       <c r="AQ9" s="8">
-        <v>42050</v>
+        <v>38243.800000000003</v>
       </c>
       <c r="AR9" s="8">
-        <v>31900</v>
+        <v>39366.400000000001</v>
       </c>
       <c r="AS9" s="8">
-        <v>52550</v>
+        <v>40093.199999999997</v>
       </c>
       <c r="AT9" s="8">
-        <v>44650</v>
+        <v>40678.699999999997</v>
       </c>
       <c r="AU9" s="8">
-        <v>57400</v>
+        <v>42360.4</v>
       </c>
       <c r="AV9" s="8">
-        <v>34400</v>
+        <v>44649</v>
       </c>
       <c r="AW9" s="8">
-        <v>47250</v>
+        <v>44286.6</v>
       </c>
       <c r="AX9" s="8">
-        <v>35950</v>
+        <v>44367.199999999997</v>
       </c>
       <c r="AY9" s="8">
-        <v>45900</v>
+        <v>45615.199999999997</v>
       </c>
       <c r="AZ9" s="8">
-        <v>36800</v>
+        <v>46596.4</v>
       </c>
       <c r="BA9" s="8">
-        <v>50750</v>
+        <v>47573.3</v>
       </c>
       <c r="BB9" s="8">
-        <v>74550</v>
+        <v>49734.2</v>
       </c>
       <c r="BC9" s="8">
-        <v>45350</v>
+        <v>49441.8</v>
       </c>
       <c r="BD9" s="8">
-        <v>49400</v>
+        <v>50755.8</v>
       </c>
       <c r="BE9" s="8">
-        <v>67000</v>
+        <v>51605.4</v>
       </c>
       <c r="BF9" s="8">
-        <v>44050</v>
+        <v>52385.8</v>
       </c>
       <c r="BG9" s="8">
-        <v>60950</v>
+        <v>54321.2</v>
       </c>
       <c r="BH9" s="8">
-        <v>45750</v>
+        <v>54133.1</v>
       </c>
       <c r="BI9" s="8">
-        <v>55050</v>
+        <v>55349</v>
       </c>
       <c r="BJ9" s="8">
-        <v>64100</v>
+        <v>55602.8</v>
       </c>
       <c r="BK9" s="8">
-        <v>81700</v>
+        <v>56977.1</v>
       </c>
       <c r="BL9" s="8">
-        <v>55400</v>
+        <v>57858</v>
       </c>
       <c r="BM9" s="8">
-        <v>79300</v>
+        <v>58050.5</v>
       </c>
       <c r="BN9" s="8">
-        <v>110950</v>
+        <v>60161.9</v>
       </c>
       <c r="BO9" s="8">
-        <v>76450</v>
+        <v>59813.599999999999</v>
       </c>
       <c r="BP9" s="8">
-        <v>66700</v>
+        <v>62190.6</v>
       </c>
       <c r="BQ9" s="8">
-        <v>54550</v>
+        <v>64081.7</v>
       </c>
       <c r="BR9" s="8">
-        <v>66050</v>
+        <v>63932.4</v>
       </c>
       <c r="BS9" s="8">
-        <v>69900</v>
+        <v>65300.1</v>
       </c>
       <c r="BT9" s="8">
-        <v>138350</v>
+        <v>65808.600000000006</v>
       </c>
       <c r="BU9" s="8">
-        <v>101550</v>
+        <v>66843.3</v>
       </c>
       <c r="BV9" s="8">
-        <v>80850</v>
+        <v>68605.3</v>
       </c>
       <c r="BW9" s="8">
-        <v>62100</v>
+        <v>69231.199999999997</v>
       </c>
       <c r="BX9" s="8">
-        <v>82550</v>
+        <v>72283.3</v>
       </c>
       <c r="BY9" s="8">
-        <v>102650</v>
+        <v>71745.3</v>
       </c>
       <c r="BZ9" s="8">
-        <v>73950</v>
+        <v>72141.8</v>
       </c>
       <c r="CA9" s="8">
-        <v>85400</v>
+        <v>73097.8</v>
       </c>
       <c r="CB9" s="8">
-        <v>65650</v>
+        <v>74267.5</v>
       </c>
       <c r="CC9" s="8">
-        <v>78300</v>
+        <v>75028.2</v>
       </c>
       <c r="CD9" s="8">
-        <v>80400</v>
+        <v>77658.8</v>
       </c>
       <c r="CE9" s="8">
-        <v>66750</v>
+        <v>78708.800000000003</v>
       </c>
       <c r="CF9" s="8">
-        <v>78400</v>
+        <v>79028.600000000006</v>
       </c>
       <c r="CG9" s="8">
-        <v>87700</v>
+        <v>80618.899999999994</v>
       </c>
       <c r="CH9" s="8">
-        <v>82750</v>
+        <v>81072.2</v>
       </c>
       <c r="CI9" s="8">
-        <v>84900</v>
+        <v>82521.8</v>
       </c>
       <c r="CJ9" s="8">
-        <v>132050</v>
+        <v>85802.2</v>
       </c>
       <c r="CK9" s="8">
-        <v>95000</v>
+        <v>84156.6</v>
       </c>
       <c r="CL9" s="8">
-        <v>85400</v>
+        <v>85037.9</v>
       </c>
       <c r="CM9" s="8">
-        <v>104550</v>
+        <v>87319.1</v>
       </c>
       <c r="CN9" s="8">
-        <v>118100</v>
+        <v>90292.7</v>
       </c>
       <c r="CO9" s="8">
-        <v>78900</v>
+        <v>90412</v>
       </c>
       <c r="CP9" s="8">
-        <v>80600</v>
+        <v>92464.8</v>
       </c>
       <c r="CQ9" s="8">
-        <v>116300</v>
+        <v>92313.8</v>
       </c>
       <c r="CR9" s="8">
-        <v>105000</v>
+        <v>93996.6</v>
       </c>
       <c r="CS9" s="8">
-        <v>102300</v>
+        <v>95469.8</v>
       </c>
       <c r="CT9" s="8">
-        <v>103450</v>
+        <v>95185.1</v>
       </c>
       <c r="CU9" s="8">
-        <v>106950</v>
+        <v>96182.7</v>
       </c>
       <c r="CV9" s="8">
-        <v>106600</v>
-      </c>
-      <c r="CW9" s="8">
-        <v>102000</v>
+        <v>98580.800000000003</v>
       </c>
     </row>
   </sheetData>
@@ -15889,7 +15862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13647754-55CD-4262-8659-F4509826EC3E}">
   <dimension ref="A1:CW9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
